--- a/linguistic_analysis/result_comparison.xlsx
+++ b/linguistic_analysis/result_comparison.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="138">
   <si>
     <t>slightly</t>
   </si>
@@ -402,9 +403,6 @@
     <t>PMI</t>
   </si>
   <si>
-    <t>PMI Sigmoid</t>
-  </si>
-  <si>
     <t>Difference</t>
   </si>
   <si>
@@ -421,6 +419,21 @@
   </si>
   <si>
     <t>32 false</t>
+  </si>
+  <si>
+    <t>PMI 0 to 1</t>
+  </si>
+  <si>
+    <t>43 true</t>
+  </si>
+  <si>
+    <t>43 false</t>
+  </si>
+  <si>
+    <t>58 false</t>
+  </si>
+  <si>
+    <t>28 true</t>
   </si>
 </sst>
 </file>
@@ -497,8 +510,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -556,7 +579,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -578,6 +601,11 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -599,6 +627,11 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -928,15 +961,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="D1" t="s">
         <v>116</v>
       </c>
@@ -950,25 +983,28 @@
         <v>126</v>
       </c>
       <c r="I1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" t="s">
         <v>127</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" t="s">
         <v>128</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>129</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" t="s">
         <v>130</v>
       </c>
-      <c r="N1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -991,33 +1027,37 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>1/(1 + 2.71^(-H2))</f>
-        <v>0.5</v>
+        <f>(H2+1)/2 - 0.0001</f>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J2">
         <f>F2-I2</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L2" s="1">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K2" t="b">
+        <f>ABS(J2)&lt; 0.5</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
         <v>-9.2530131000000002E-2</v>
       </c>
-      <c r="M2">
-        <f>1/(1 + 2.71^(-L2))</f>
+      <c r="N2">
+        <f t="shared" ref="N2:N33" si="0">1/(1 + 2.71^(-M2))</f>
         <v>0.47695439324826766</v>
       </c>
-      <c r="N2">
-        <f>F2-M2</f>
+      <c r="O2">
+        <f>F2-N2</f>
         <v>-0.47695439324826766</v>
       </c>
-      <c r="O2" t="b">
-        <f>ABS(N2) &lt; 0.5</f>
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="P2" t="b">
+        <f>ABS(O2) &lt; 0.5</f>
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1040,33 +1080,37 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>1/(1 + 2.71^(-H3))</f>
-        <v>0.5</v>
+        <f t="shared" ref="I3:I66" si="1">(H3+1)/2 - 0.0001</f>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J3">
         <f>F3-I3</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L3" s="1">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K3" t="b">
+        <f t="shared" ref="K3:K66" si="2">ABS(J3)&lt; 0.5</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
         <v>-0.18172260000000001</v>
       </c>
-      <c r="M3">
-        <f>1/(1 + 2.71^(-L3))</f>
+      <c r="N3">
+        <f t="shared" si="0"/>
         <v>0.45483145102794703</v>
       </c>
-      <c r="N3">
-        <f>F3-M3</f>
+      <c r="O3">
+        <f>F3-N3</f>
         <v>-0.45483145102794703</v>
       </c>
-      <c r="O3" t="b">
-        <f t="shared" ref="O3:O66" si="0">ABS(N3) &lt; 0.5</f>
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="P3" t="b">
+        <f t="shared" ref="P3:P65" si="3">ABS(O3) &lt; 0.5</f>
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1086,21 +1130,21 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f>1/(1 + 2.71^(-H4))</f>
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="M4" s="1">
         <v>1.3974599000000001E-2</v>
       </c>
-      <c r="M4">
-        <f>1/(1 + 2.71^(-L4))</f>
+      <c r="N4">
+        <f t="shared" si="0"/>
         <v>0.5034829330129561</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1120,21 +1164,21 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f>1/(1 + 2.71^(-H5))</f>
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="M5" s="1">
         <v>-0.83595362299999998</v>
       </c>
-      <c r="M5">
-        <f>1/(1 + 2.71^(-L5))</f>
+      <c r="N5">
+        <f t="shared" si="0"/>
         <v>0.30292604220705505</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1154,39 +1198,43 @@
         <v>1</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <f>1/(1 + 2.71^(-H6))</f>
-        <v>0.5</v>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J6" s="2">
         <f>F6-I6</f>
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="K6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3">
         <v>-1.036005522</v>
       </c>
-      <c r="M6" s="2">
-        <f>1/(1 + 2.71^(-L6))</f>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
         <v>0.26253305075201433</v>
       </c>
-      <c r="N6" s="2">
-        <f>F6-M6</f>
+      <c r="O6" s="2">
+        <f>F6-N6</f>
         <v>0.73746694924798573</v>
       </c>
-      <c r="O6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
+      <c r="P6" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1209,33 +1257,37 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f>1/(1 + 2.71^(-H7))</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J7">
         <f>F7-I7</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L7" s="1">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
         <v>-1.3019126519999999</v>
       </c>
-      <c r="M7">
-        <f>1/(1 + 2.71^(-L7))</f>
+      <c r="N7">
+        <f t="shared" si="0"/>
         <v>0.21451190878716966</v>
       </c>
-      <c r="N7">
-        <f>F7-M7</f>
+      <c r="O7">
+        <f>F7-N7</f>
         <v>-0.21451190878716966</v>
       </c>
-      <c r="O7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="P7" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1255,39 +1307,43 @@
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>0.85240000000000005</v>
-      </c>
-      <c r="I8" s="2">
-        <f>1/(1 + 2.71^(-H8))</f>
-        <v>0.70052497987383333</v>
+      <c r="H8">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.54220000000000002</v>
       </c>
       <c r="J8" s="2">
         <f>F8-I8</f>
-        <v>-0.70052497987383333</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3">
+        <v>-0.54220000000000002</v>
+      </c>
+      <c r="K8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3">
         <v>-0.55706225099999995</v>
       </c>
-      <c r="M8" s="2">
-        <f>1/(1 + 2.71^(-L8))</f>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
         <v>0.36462117667465999</v>
       </c>
-      <c r="N8" s="2">
-        <f>F8-M8</f>
+      <c r="O8" s="2">
+        <f>F8-N8</f>
         <v>-0.36462117667465999</v>
       </c>
-      <c r="O8" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2" t="s">
+      <c r="P8" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1307,37 +1363,41 @@
         <v>0</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>2.2989000000000002</v>
-      </c>
-      <c r="I9" s="2">
-        <f>1/(1 + 2.71^(-H9))</f>
-        <v>0.90820274256971723</v>
+      <c r="H9">
+        <v>0.2283</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.61404999999999998</v>
       </c>
       <c r="J9" s="2">
         <f>F9-I9</f>
-        <v>-0.90820274256971723</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3">
+        <v>-0.61404999999999998</v>
+      </c>
+      <c r="K9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3">
         <v>-1.031302905</v>
       </c>
-      <c r="M9" s="2">
-        <f>1/(1 + 2.71^(-L9))</f>
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
         <v>0.26344175365625161</v>
       </c>
-      <c r="N9" s="2">
-        <f>F9-M9</f>
+      <c r="O9" s="2">
+        <f>F9-N9</f>
         <v>-0.26344175365625161</v>
       </c>
-      <c r="O9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P9" s="2"/>
+      <c r="P9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" s="2" customFormat="1">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1356,27 +1416,28 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10">
-        <v>-0.74560000000000004</v>
+        <v>-9.2700000000000005E-2</v>
       </c>
       <c r="I10">
-        <f>1/(1 + 2.71^(-H10))</f>
-        <v>0.32227750749114348</v>
+        <f t="shared" si="1"/>
+        <v>0.45355000000000001</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10" s="1">
+      <c r="L10"/>
+      <c r="M10" s="1">
         <v>-1.510896375</v>
       </c>
-      <c r="M10">
-        <f>1/(1 + 2.71^(-L10))</f>
+      <c r="N10">
+        <f t="shared" si="0"/>
         <v>0.18148984846580216</v>
       </c>
-      <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:17" s="2" customFormat="1">
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1395,27 +1456,28 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11">
-        <v>2.1947000000000001</v>
+        <v>0.2462</v>
       </c>
       <c r="I11">
-        <f>1/(1 + 2.71^(-H11))</f>
-        <v>0.89916700660328108</v>
+        <f t="shared" si="1"/>
+        <v>0.623</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11" s="1">
+      <c r="L11"/>
+      <c r="M11" s="1">
         <v>0.67394405700000004</v>
       </c>
-      <c r="M11">
-        <f>1/(1 + 2.71^(-L11))</f>
+      <c r="N11">
+        <f t="shared" si="0"/>
         <v>0.66192569718970218</v>
       </c>
-      <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-    </row>
-    <row r="12" spans="1:17" s="2" customFormat="1">
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1434,34 +1496,38 @@
       <c r="F12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="2">
-        <v>3.4272</v>
-      </c>
-      <c r="I12" s="2">
-        <f>1/(1 + 2.71^(-H12))</f>
-        <v>0.96822369799361296</v>
+      <c r="H12">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.71145000000000003</v>
       </c>
       <c r="J12" s="2">
         <f>F12-I12</f>
-        <v>-0.96822369799361296</v>
-      </c>
-      <c r="L12" s="3">
+        <v>-0.71145000000000003</v>
+      </c>
+      <c r="K12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>-0.39920822700000003</v>
       </c>
-      <c r="M12" s="2">
-        <f>1/(1 + 2.71^(-L12))</f>
+      <c r="N12" s="2">
+        <f t="shared" si="0"/>
         <v>0.40179533633539283</v>
       </c>
-      <c r="N12" s="2">
-        <f>F12-M12</f>
+      <c r="O12" s="2">
+        <f>F12-N12</f>
         <v>-0.40179533633539283</v>
       </c>
-      <c r="O12" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="P12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1481,37 +1547,41 @@
         <v>0</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>3.2898999999999998</v>
-      </c>
-      <c r="I13" s="2">
-        <f>1/(1 + 2.71^(-H13))</f>
-        <v>0.96373143642141113</v>
+      <c r="H13">
+        <v>0.3322</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.66600000000000004</v>
       </c>
       <c r="J13" s="2">
         <f>F13-I13</f>
-        <v>-0.96373143642141113</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3">
+        <v>-0.66600000000000004</v>
+      </c>
+      <c r="K13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3">
         <v>0.22875350699999999</v>
       </c>
-      <c r="M13" s="2">
-        <f>1/(1 + 2.71^(-L13))</f>
+      <c r="N13" s="2">
+        <f t="shared" si="0"/>
         <v>0.55676804822491721</v>
       </c>
-      <c r="N13" s="2">
-        <f>F13-M13</f>
+      <c r="O13" s="2">
+        <f>F13-N13</f>
         <v>-0.55676804822491721</v>
       </c>
-      <c r="O13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="2"/>
+      <c r="P13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1531,37 +1601,41 @@
         <v>0</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>0.89359999999999995</v>
-      </c>
-      <c r="I14" s="2">
-        <f>1/(1 + 2.71^(-H14))</f>
-        <v>0.70907035817674235</v>
+      <c r="H14">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.54574999999999996</v>
       </c>
       <c r="J14" s="2">
         <f>F14-I14</f>
-        <v>-0.70907035817674235</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3">
+        <v>-0.54574999999999996</v>
+      </c>
+      <c r="K14" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3">
         <v>0.30232815899999999</v>
       </c>
-      <c r="M14" s="2">
-        <f>1/(1 + 2.71^(-L14))</f>
+      <c r="N14" s="2">
+        <f t="shared" si="0"/>
         <v>0.57478610250473627</v>
       </c>
-      <c r="N14" s="2">
-        <f>F14-M14</f>
+      <c r="O14" s="2">
+        <f>F14-N14</f>
         <v>-0.57478610250473627</v>
       </c>
-      <c r="O14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="2"/>
+      <c r="P14" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1581,37 +1655,41 @@
         <v>0</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <f>1/(1 + 2.71^(-H15))</f>
-        <v>0.5</v>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J15" s="2">
         <f>F15-I15</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K15" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3">
         <v>-1.0059589390000001</v>
       </c>
-      <c r="M15" s="2">
-        <f>1/(1 + 2.71^(-L15))</f>
+      <c r="N15" s="2">
+        <f t="shared" si="0"/>
         <v>0.26837371202922417</v>
       </c>
-      <c r="N15" s="2">
-        <f>F15-M15</f>
+      <c r="O15" s="2">
+        <f>F15-N15</f>
         <v>-0.26837371202922417</v>
       </c>
-      <c r="O15" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P15" s="2"/>
+      <c r="P15" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1634,30 +1712,34 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f>1/(1 + 2.71^(-H16))</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J16">
         <f>F16-I16</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L16" s="1">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
         <v>-1.7612213189999999</v>
       </c>
-      <c r="M16">
-        <f>1/(1 + 2.71^(-L16))</f>
+      <c r="N16">
+        <f t="shared" si="0"/>
         <v>0.14731121322856813</v>
       </c>
-      <c r="N16">
-        <f>F16-M16</f>
+      <c r="O16">
+        <f>F16-N16</f>
         <v>-0.14731121322856813</v>
       </c>
-      <c r="O16" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="2" customFormat="1">
+      <c r="P16" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="2" customFormat="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1681,33 +1763,37 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>1/(1 + 2.71^(-H17))</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J17">
         <f>F17-I17</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K17"/>
-      <c r="L17" s="1">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K17" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17" s="1">
         <v>-3.9294910000000002E-3</v>
       </c>
-      <c r="M17">
-        <f>1/(1 + 2.71^(-L17))</f>
+      <c r="N17">
+        <f t="shared" si="0"/>
         <v>0.49902062608045467</v>
       </c>
-      <c r="N17">
-        <f>F17-M17</f>
+      <c r="O17">
+        <f>F17-N17</f>
         <v>-0.49902062608045467</v>
       </c>
-      <c r="O17" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P17"/>
+      <c r="P17" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q17"/>
-    </row>
-    <row r="18" spans="1:17" s="2" customFormat="1">
+      <c r="R17"/>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1728,36 +1814,40 @@
       </c>
       <c r="G18"/>
       <c r="H18">
-        <v>1.5188999999999999</v>
+        <v>0.15459999999999999</v>
       </c>
       <c r="I18">
-        <f>1/(1 + 2.71^(-H18))</f>
-        <v>0.81969246132020168</v>
+        <f t="shared" si="1"/>
+        <v>0.57720000000000005</v>
       </c>
       <c r="J18">
         <f>F18-I18</f>
-        <v>-0.81969246132020168</v>
-      </c>
-      <c r="K18"/>
-      <c r="L18" s="1">
+        <v>-0.57720000000000005</v>
+      </c>
+      <c r="K18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18" s="1">
         <v>-0.63287332600000001</v>
       </c>
-      <c r="M18">
-        <f>1/(1 + 2.71^(-L18))</f>
+      <c r="N18">
+        <f t="shared" si="0"/>
         <v>0.34729692788351968</v>
       </c>
-      <c r="N18">
-        <f>F18-M18</f>
+      <c r="O18">
+        <f>F18-N18</f>
         <v>-0.34729692788351968</v>
       </c>
-      <c r="O18" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P18"/>
+      <c r="P18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q18"/>
-    </row>
-    <row r="19" spans="1:17" s="2" customFormat="1">
+      <c r="R18"/>
+    </row>
+    <row r="19" spans="1:18" s="2" customFormat="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1776,34 +1866,38 @@
       <c r="F19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="2">
-        <v>2.5148000000000001</v>
-      </c>
-      <c r="I19" s="2">
-        <f>1/(1 + 2.71^(-H19))</f>
-        <v>0.92463990138228147</v>
+      <c r="H19">
+        <v>0.254</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0.62690000000000001</v>
       </c>
       <c r="J19" s="2">
         <f>F19-I19</f>
-        <v>-0.92463990138228147</v>
-      </c>
-      <c r="L19" s="3">
+        <v>-0.62690000000000001</v>
+      </c>
+      <c r="K19" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
         <v>0.579184586</v>
       </c>
-      <c r="M19" s="2">
-        <f>1/(1 + 2.71^(-L19))</f>
+      <c r="N19" s="2">
+        <f t="shared" si="0"/>
         <v>0.6404729067725573</v>
       </c>
-      <c r="N19" s="2">
-        <f>F19-M19</f>
+      <c r="O19" s="2">
+        <f>F19-N19</f>
         <v>-0.6404729067725573</v>
       </c>
-      <c r="O19" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="P19" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1823,33 +1917,37 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.7795000000000001</v>
+        <v>0.33560000000000001</v>
       </c>
       <c r="I20">
-        <f>1/(1 + 2.71^(-H20))</f>
-        <v>0.97742254845824306</v>
+        <f t="shared" si="1"/>
+        <v>0.66769999999999996</v>
       </c>
       <c r="J20">
         <f>F20-I20</f>
-        <v>-0.97742254845824306</v>
-      </c>
-      <c r="L20" s="1">
+        <v>-0.66769999999999996</v>
+      </c>
+      <c r="K20" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
         <v>0.43257069199999998</v>
       </c>
-      <c r="M20">
-        <f>1/(1 + 2.71^(-L20))</f>
+      <c r="N20">
+        <f t="shared" si="0"/>
         <v>0.60617229899725489</v>
       </c>
-      <c r="N20">
-        <f>F20-M20</f>
+      <c r="O20">
+        <f>F20-N20</f>
         <v>-0.60617229899725489</v>
       </c>
-      <c r="O20" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="P20" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1872,30 +1970,34 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f>1/(1 + 2.71^(-H21))</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J21">
         <f>F21-I21</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L21" s="1">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K21" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
         <v>0.27858877100000001</v>
       </c>
-      <c r="M21">
-        <f>1/(1 + 2.71^(-L21))</f>
+      <c r="N21">
+        <f t="shared" si="0"/>
         <v>0.56899174791460105</v>
       </c>
-      <c r="N21">
-        <f>F21-M21</f>
+      <c r="O21">
+        <f>F21-N21</f>
         <v>-0.56899174791460105</v>
       </c>
-      <c r="O21" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="P21" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1915,33 +2017,37 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.9805999999999999</v>
+        <v>0.2954</v>
       </c>
       <c r="I22">
-        <f>1/(1 + 2.71^(-H22))</f>
-        <v>0.95127009382745109</v>
+        <f t="shared" si="1"/>
+        <v>0.64759999999999995</v>
       </c>
       <c r="J22">
         <f>F22-I22</f>
-        <v>-0.95127009382745109</v>
-      </c>
-      <c r="L22" s="1">
+        <v>-0.64759999999999995</v>
+      </c>
+      <c r="K22" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
         <v>0.64298500000000003</v>
       </c>
-      <c r="M22">
-        <f>1/(1 + 2.71^(-L22))</f>
+      <c r="N22">
+        <f t="shared" si="0"/>
         <v>0.6549846785988338</v>
       </c>
-      <c r="N22">
-        <f>F22-M22</f>
+      <c r="O22">
+        <f>F22-N22</f>
         <v>-0.6549846785988338</v>
       </c>
-      <c r="O22" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="2" customFormat="1">
+      <c r="P22" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="2" customFormat="1">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1961,37 +2067,41 @@
         <v>0</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="6">
-        <v>1.579</v>
-      </c>
-      <c r="I23" s="6">
-        <f>1/(1 + 2.71^(-H23))</f>
-        <v>0.82837895344802848</v>
+      <c r="H23">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0.58289999999999997</v>
       </c>
       <c r="J23" s="6">
         <f>F23-I23</f>
-        <v>-0.82837895344802848</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="7">
+        <v>-0.58289999999999997</v>
+      </c>
+      <c r="K23" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="7">
         <v>-0.80823451700000004</v>
       </c>
-      <c r="M23" s="6">
-        <f>1/(1 + 2.71^(-L23))</f>
+      <c r="N23" s="6">
+        <f t="shared" si="0"/>
         <v>0.30879297798539329</v>
       </c>
-      <c r="N23" s="6">
-        <f>F23-M23</f>
+      <c r="O23" s="6">
+        <f>F23-N23</f>
         <v>-0.30879297798539329</v>
       </c>
-      <c r="O23" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P23" s="8"/>
+      <c r="P23" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="1:17" s="2" customFormat="1">
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="1:18" s="2" customFormat="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2012,36 +2122,40 @@
       </c>
       <c r="G24"/>
       <c r="H24">
-        <v>1.2759</v>
+        <v>0.13039999999999999</v>
       </c>
       <c r="I24">
-        <f>1/(1 + 2.71^(-H24))</f>
-        <v>0.78108607914676997</v>
+        <f t="shared" si="1"/>
+        <v>0.56510000000000005</v>
       </c>
       <c r="J24">
         <f>F24-I24</f>
-        <v>-0.78108607914676997</v>
-      </c>
-      <c r="K24"/>
-      <c r="L24" s="1">
+        <v>-0.56510000000000005</v>
+      </c>
+      <c r="K24" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24" s="1">
         <v>0.21882165100000001</v>
       </c>
-      <c r="M24">
-        <f>1/(1 + 2.71^(-L24))</f>
+      <c r="N24">
+        <f t="shared" si="0"/>
         <v>0.55432321525656336</v>
       </c>
-      <c r="N24">
-        <f>F24-M24</f>
+      <c r="O24">
+        <f>F24-N24</f>
         <v>-0.55432321525656336</v>
       </c>
-      <c r="O24" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P24"/>
+      <c r="P24" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Q24"/>
-    </row>
-    <row r="25" spans="1:17" s="2" customFormat="1">
+      <c r="R24"/>
+    </row>
+    <row r="25" spans="1:18" s="2" customFormat="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2062,36 +2176,40 @@
       </c>
       <c r="G25"/>
       <c r="H25">
-        <v>1.0770999999999999</v>
+        <v>0.1115</v>
       </c>
       <c r="I25">
-        <f>1/(1 + 2.71^(-H25))</f>
-        <v>0.74532143757166314</v>
+        <f t="shared" si="1"/>
+        <v>0.55564999999999998</v>
       </c>
       <c r="J25">
         <f>F25-I25</f>
-        <v>-0.74532143757166314</v>
-      </c>
-      <c r="K25"/>
-      <c r="L25" s="1">
+        <v>-0.55564999999999998</v>
+      </c>
+      <c r="K25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25" s="1">
         <v>7.1985561000000003E-2</v>
       </c>
-      <c r="M25">
-        <f>1/(1 + 2.71^(-L25))</f>
+      <c r="N25">
+        <f t="shared" si="0"/>
         <v>0.5179337802564955</v>
       </c>
-      <c r="N25">
-        <f>F25-M25</f>
+      <c r="O25">
+        <f>F25-N25</f>
         <v>-0.5179337802564955</v>
       </c>
-      <c r="O25" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P25"/>
+      <c r="P25" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Q25"/>
-    </row>
-    <row r="26" spans="1:17" s="2" customFormat="1">
+      <c r="R25"/>
+    </row>
+    <row r="26" spans="1:18" s="2" customFormat="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2112,36 +2230,40 @@
       </c>
       <c r="G26"/>
       <c r="H26">
-        <v>3.1202999999999999</v>
+        <v>0.3266</v>
       </c>
       <c r="I26">
-        <f>1/(1 + 2.71^(-H26))</f>
-        <v>0.9573351778781114</v>
+        <f t="shared" si="1"/>
+        <v>0.66320000000000001</v>
       </c>
       <c r="J26">
         <f>F26-I26</f>
-        <v>4.2664822121888601E-2</v>
-      </c>
-      <c r="K26"/>
-      <c r="L26" s="1">
+        <v>0.33679999999999999</v>
+      </c>
+      <c r="K26" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26" s="1">
         <v>0.74844038400000001</v>
       </c>
-      <c r="M26">
-        <f>1/(1 + 2.71^(-L26))</f>
+      <c r="N26">
+        <f t="shared" si="0"/>
         <v>0.67834066964483331</v>
       </c>
-      <c r="N26">
-        <f>F26-M26</f>
+      <c r="O26">
+        <f>F26-N26</f>
         <v>0.32165933035516669</v>
       </c>
-      <c r="O26" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P26"/>
+      <c r="P26" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q26"/>
-    </row>
-    <row r="27" spans="1:17" s="2" customFormat="1">
+      <c r="R26"/>
+    </row>
+    <row r="27" spans="1:18" s="2" customFormat="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2160,34 +2282,38 @@
       <c r="F27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="2">
-        <v>3.8896999999999999</v>
-      </c>
-      <c r="I27" s="2">
-        <f>1/(1 + 2.71^(-H27))</f>
-        <v>0.97972396278116725</v>
+      <c r="H27">
+        <v>0.39279999999999998</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.69630000000000003</v>
       </c>
       <c r="J27" s="2">
         <f>F27-I27</f>
-        <v>-0.97972396278116725</v>
-      </c>
-      <c r="L27" s="3">
+        <v>-0.69630000000000003</v>
+      </c>
+      <c r="K27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>0.62513462099999995</v>
       </c>
-      <c r="M27" s="2">
-        <f>1/(1 + 2.71^(-L27))</f>
+      <c r="N27" s="2">
+        <f t="shared" si="0"/>
         <v>0.65095214742064722</v>
       </c>
-      <c r="N27" s="2">
-        <f>F27-M27</f>
+      <c r="O27" s="2">
+        <f>F27-N27</f>
         <v>-0.65095214742064722</v>
       </c>
-      <c r="O27" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="2" customFormat="1">
+      <c r="P27" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="2" customFormat="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2206,34 +2332,38 @@
       <c r="F28" s="2">
         <v>0</v>
       </c>
-      <c r="H28" s="2">
-        <v>2.7458999999999998</v>
-      </c>
-      <c r="I28" s="2">
-        <f>1/(1 + 2.71^(-H28))</f>
-        <v>0.93920471636356162</v>
+      <c r="H28">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0.67805000000000004</v>
       </c>
       <c r="J28" s="2">
         <f>F28-I28</f>
-        <v>-0.93920471636356162</v>
-      </c>
-      <c r="L28" s="3">
+        <v>-0.67805000000000004</v>
+      </c>
+      <c r="K28" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
         <v>-0.47822646800000002</v>
       </c>
-      <c r="M28" s="2">
-        <f>1/(1 + 2.71^(-L28))</f>
+      <c r="N28" s="2">
+        <f t="shared" si="0"/>
         <v>0.38301578812821785</v>
       </c>
-      <c r="N28" s="2">
-        <f>F28-M28</f>
+      <c r="O28" s="2">
+        <f>F28-N28</f>
         <v>-0.38301578812821785</v>
       </c>
-      <c r="O28" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="2" customFormat="1">
+      <c r="P28" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="2" customFormat="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2250,27 +2380,28 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29">
-        <v>0.95189999999999997</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="I29">
-        <f>1/(1 + 2.71^(-H29))</f>
-        <v>0.72091310109390272</v>
+        <f t="shared" si="1"/>
+        <v>0.54510000000000003</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
-      <c r="L29" s="1">
+      <c r="L29"/>
+      <c r="M29" s="1">
         <v>-1.4332978350000001</v>
       </c>
-      <c r="M29">
-        <f>1/(1 + 2.71^(-L29))</f>
+      <c r="N29">
+        <f t="shared" si="0"/>
         <v>0.19326634296933168</v>
       </c>
-      <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2293,30 +2424,34 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f>1/(1 + 2.71^(-H30))</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J30">
         <f>F30-I30</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L30" s="1">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K30" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
         <v>-0.18911577199999999</v>
       </c>
-      <c r="M30">
-        <f>1/(1 + 2.71^(-L30))</f>
+      <c r="N30">
+        <f t="shared" si="0"/>
         <v>0.45300445186817628</v>
       </c>
-      <c r="N30">
-        <f>F30-M30</f>
+      <c r="O30">
+        <f>F30-N30</f>
         <v>-0.45300445186817628</v>
       </c>
-      <c r="O30" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="P30" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2336,33 +2471,37 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>3.8311999999999999</v>
+        <v>0.3967</v>
       </c>
       <c r="I31">
-        <f>1/(1 + 2.71^(-H31))</f>
-        <v>0.97853241120836987</v>
+        <f t="shared" si="1"/>
+        <v>0.69825000000000004</v>
       </c>
       <c r="J31">
         <f>F31-I31</f>
-        <v>-0.97853241120836987</v>
-      </c>
-      <c r="L31" s="1">
+        <v>-0.69825000000000004</v>
+      </c>
+      <c r="K31" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
         <v>-1.267714496</v>
       </c>
-      <c r="M31">
-        <f>1/(1 + 2.71^(-L31))</f>
+      <c r="N31">
+        <f t="shared" si="0"/>
         <v>0.22031249470140488</v>
       </c>
-      <c r="N31">
-        <f>F31-M31</f>
+      <c r="O31">
+        <f>F31-N31</f>
         <v>-0.22031249470140488</v>
       </c>
-      <c r="O31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="P31" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2382,33 +2521,37 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>4.4309000000000003</v>
+        <v>0.38450000000000001</v>
       </c>
       <c r="I32">
-        <f>1/(1 + 2.71^(-H32))</f>
-        <v>0.9880780411957566</v>
+        <f t="shared" si="1"/>
+        <v>0.69215000000000004</v>
       </c>
       <c r="J32">
         <f>F32-I32</f>
-        <v>-0.9880780411957566</v>
-      </c>
-      <c r="L32" s="1">
+        <v>-0.69215000000000004</v>
+      </c>
+      <c r="K32" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
         <v>-0.44435280599999999</v>
       </c>
-      <c r="M32">
-        <f>1/(1 + 2.71^(-L32))</f>
+      <c r="N32">
+        <f t="shared" si="0"/>
         <v>0.39102709455702411</v>
       </c>
-      <c r="N32">
-        <f>F32-M32</f>
+      <c r="O32">
+        <f>F32-N32</f>
         <v>-0.39102709455702411</v>
       </c>
-      <c r="O32" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="2" customFormat="1">
+      <c r="P32" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="2" customFormat="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2429,36 +2572,40 @@
       </c>
       <c r="G33"/>
       <c r="H33">
-        <v>2.2222</v>
+        <v>0.3196</v>
       </c>
       <c r="I33">
-        <f>1/(1 + 2.71^(-H33))</f>
-        <v>0.90162564503811937</v>
+        <f t="shared" si="1"/>
+        <v>0.65969999999999995</v>
       </c>
       <c r="J33">
         <f>F33-I33</f>
-        <v>-0.90162564503811937</v>
-      </c>
-      <c r="K33"/>
-      <c r="L33" s="1">
+        <v>-0.65969999999999995</v>
+      </c>
+      <c r="K33" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33" s="1">
         <v>0.343861468</v>
       </c>
-      <c r="M33">
-        <f>1/(1 + 2.71^(-L33))</f>
+      <c r="N33">
+        <f t="shared" si="0"/>
         <v>0.5848734829172636</v>
       </c>
-      <c r="N33">
-        <f>F33-M33</f>
+      <c r="O33">
+        <f>F33-N33</f>
         <v>-0.5848734829172636</v>
       </c>
-      <c r="O33" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P33"/>
+      <c r="P33" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Q33"/>
-    </row>
-    <row r="34" spans="1:17" s="2" customFormat="1">
+      <c r="R33"/>
+    </row>
+    <row r="34" spans="1:18" s="2" customFormat="1">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2479,36 +2626,40 @@
       </c>
       <c r="G34"/>
       <c r="H34">
-        <v>2.4695</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="I34">
-        <f>1/(1 + 2.71^(-H34))</f>
-        <v>0.92143201187731438</v>
+        <f t="shared" si="1"/>
+        <v>0.67749999999999999</v>
       </c>
       <c r="J34">
         <f>F34-I34</f>
-        <v>-0.92143201187731438</v>
-      </c>
-      <c r="K34"/>
-      <c r="L34" s="1">
+        <v>-0.67749999999999999</v>
+      </c>
+      <c r="K34" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34"/>
+      <c r="M34" s="1">
         <v>0.65753492499999999</v>
       </c>
-      <c r="M34">
-        <f>1/(1 + 2.71^(-L34))</f>
+      <c r="N34">
+        <f t="shared" ref="N34:N65" si="4">1/(1 + 2.71^(-M34))</f>
         <v>0.658255224178244</v>
       </c>
-      <c r="N34">
-        <f>F34-M34</f>
+      <c r="O34">
+        <f>F34-N34</f>
         <v>-0.658255224178244</v>
       </c>
-      <c r="O34" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P34"/>
+      <c r="P34" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Q34"/>
-    </row>
-    <row r="35" spans="1:17" s="2" customFormat="1">
+      <c r="R34"/>
+    </row>
+    <row r="35" spans="1:18" s="2" customFormat="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2527,34 +2678,38 @@
       <c r="F35" s="2">
         <v>0</v>
       </c>
-      <c r="H35" s="2">
-        <v>3.6271</v>
-      </c>
-      <c r="I35" s="2">
-        <f>1/(1 + 2.71^(-H35))</f>
-        <v>0.9738149432420482</v>
+      <c r="H35">
+        <v>0.3533</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0.67654999999999998</v>
       </c>
       <c r="J35" s="2">
         <f>F35-I35</f>
-        <v>-0.9738149432420482</v>
-      </c>
-      <c r="L35" s="3">
+        <v>-0.67654999999999998</v>
+      </c>
+      <c r="K35" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>0.144823805</v>
       </c>
-      <c r="M35" s="2">
-        <f>1/(1 + 2.71^(-L35))</f>
+      <c r="N35" s="2">
+        <f t="shared" si="4"/>
         <v>0.53603289986331459</v>
       </c>
-      <c r="N35" s="2">
-        <f>F35-M35</f>
+      <c r="O35" s="2">
+        <f>F35-N35</f>
         <v>-0.53603289986331459</v>
       </c>
-      <c r="O35" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="2" customFormat="1">
+      <c r="P35" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="2" customFormat="1">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2578,33 +2733,37 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <f>1/(1 + 2.71^(-H36))</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J36">
         <f>F36-I36</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K36"/>
-      <c r="L36" s="1">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K36" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36" s="1">
         <v>-1.336386318</v>
       </c>
-      <c r="M36">
-        <f>1/(1 + 2.71^(-L36))</f>
+      <c r="N36">
+        <f t="shared" si="4"/>
         <v>0.20877776607421508</v>
       </c>
-      <c r="N36">
-        <f>F36-M36</f>
+      <c r="O36">
+        <f>F36-N36</f>
         <v>-0.20877776607421508</v>
       </c>
-      <c r="O36" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P36"/>
+      <c r="P36" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q36"/>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2624,37 +2783,41 @@
         <v>0</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <f>1/(1 + 2.71^(-H37))</f>
-        <v>0.5</v>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J37" s="2">
         <f>F37-I37</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="3">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K37" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="3">
         <v>0.29935466300000002</v>
       </c>
-      <c r="M37" s="2">
-        <f>1/(1 + 2.71^(-L37))</f>
+      <c r="N37" s="2">
+        <f t="shared" si="4"/>
         <v>0.57406141658113752</v>
       </c>
-      <c r="N37" s="2">
-        <f>F37-M37</f>
+      <c r="O37" s="2">
+        <f>F37-N37</f>
         <v>-0.57406141658113752</v>
       </c>
-      <c r="O37" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="2"/>
+      <c r="P37" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2674,37 +2837,41 @@
         <v>1</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="2">
-        <v>4.5656999999999996</v>
-      </c>
-      <c r="I38" s="2">
-        <f>1/(1 + 2.71^(-H38))</f>
-        <v>0.98956157603113482</v>
+      <c r="H38">
+        <v>0.46110000000000001</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0.73045000000000004</v>
       </c>
       <c r="J38" s="2">
         <f>F38-I38</f>
-        <v>1.0438423968865185E-2</v>
-      </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="3">
+        <v>0.26954999999999996</v>
+      </c>
+      <c r="K38" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="3">
         <v>0.72295878700000005</v>
       </c>
-      <c r="M38" s="2">
-        <f>1/(1 + 2.71^(-L38))</f>
+      <c r="N38" s="2">
+        <f t="shared" si="4"/>
         <v>0.67277276188346813</v>
       </c>
-      <c r="N38" s="2">
-        <f>F38-M38</f>
+      <c r="O38" s="2">
+        <f>F38-N38</f>
         <v>0.32722723811653187</v>
       </c>
-      <c r="O38" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P38" s="2"/>
+      <c r="P38" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" s="2" customFormat="1">
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" s="2" customFormat="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2723,34 +2890,38 @@
       <c r="F39" s="2">
         <v>1</v>
       </c>
-      <c r="H39" s="2">
-        <v>2.7277999999999998</v>
-      </c>
-      <c r="I39" s="2">
-        <f>1/(1 + 2.71^(-H39))</f>
-        <v>0.93816617145692849</v>
+      <c r="H39">
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>0.63529999999999998</v>
       </c>
       <c r="J39" s="2">
         <f>F39-I39</f>
-        <v>6.1833828543071512E-2</v>
-      </c>
-      <c r="L39" s="3">
+        <v>0.36470000000000002</v>
+      </c>
+      <c r="K39" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M39" s="3">
         <v>0.75110058199999996</v>
       </c>
-      <c r="M39" s="2">
-        <f>1/(1 + 2.71^(-L39))</f>
+      <c r="N39" s="2">
+        <f t="shared" si="4"/>
         <v>0.67891906545604974</v>
       </c>
-      <c r="N39" s="2">
-        <f>F39-M39</f>
+      <c r="O39" s="2">
+        <f>F39-N39</f>
         <v>0.32108093454395026</v>
       </c>
-      <c r="O39" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" s="10" customFormat="1">
+      <c r="P39" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="10" customFormat="1">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -2770,37 +2941,41 @@
         <v>1</v>
       </c>
       <c r="G40" s="8"/>
-      <c r="H40" s="8">
-        <v>2.0213999999999999</v>
-      </c>
-      <c r="I40" s="8">
-        <f>1/(1 + 2.71^(-H40))</f>
-        <v>0.88238708394354803</v>
+      <c r="H40">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>0.60570000000000002</v>
       </c>
       <c r="J40" s="8">
         <f>F40-I40</f>
-        <v>0.11761291605645197</v>
-      </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="9">
+        <v>0.39429999999999998</v>
+      </c>
+      <c r="K40" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L40" s="8"/>
+      <c r="M40" s="9">
         <v>0.26247630300000002</v>
       </c>
-      <c r="M40" s="8">
-        <f>1/(1 + 2.71^(-L40))</f>
+      <c r="N40" s="8">
+        <f t="shared" si="4"/>
         <v>0.56504809556712698</v>
       </c>
-      <c r="N40" s="8">
-        <f>F40-M40</f>
+      <c r="O40" s="8">
+        <f>F40-N40</f>
         <v>0.43495190443287302</v>
       </c>
-      <c r="O40" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P40" s="8"/>
+      <c r="P40" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q40" s="8"/>
-    </row>
-    <row r="41" spans="1:17" s="10" customFormat="1">
+      <c r="R40" s="8"/>
+    </row>
+    <row r="41" spans="1:18" s="10" customFormat="1">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -2819,34 +2994,38 @@
       <c r="F41" s="10">
         <v>1</v>
       </c>
-      <c r="H41" s="10">
-        <v>3.7412999999999998</v>
-      </c>
-      <c r="I41" s="10">
-        <f>1/(1 + 2.71^(-H41))</f>
-        <v>0.97656667625162785</v>
+      <c r="H41">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0.68700000000000006</v>
       </c>
       <c r="J41" s="10">
         <f>F41-I41</f>
-        <v>2.3433323748372148E-2</v>
-      </c>
-      <c r="L41" s="11">
+        <v>0.31299999999999994</v>
+      </c>
+      <c r="K41" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M41" s="11">
         <v>0.87945764900000001</v>
       </c>
-      <c r="M41" s="10">
-        <f>1/(1 + 2.71^(-L41))</f>
+      <c r="N41" s="10">
+        <f t="shared" si="4"/>
         <v>0.70615329017678963</v>
       </c>
-      <c r="N41" s="10">
-        <f>F41-M41</f>
+      <c r="O41" s="10">
+        <f>F41-N41</f>
         <v>0.29384670982321037</v>
       </c>
-      <c r="O41" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="10" customFormat="1">
+      <c r="P41" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="10" customFormat="1">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -2866,37 +3045,41 @@
         <v>0</v>
       </c>
       <c r="G42" s="8"/>
-      <c r="H42" s="8">
-        <v>0</v>
-      </c>
-      <c r="I42" s="8">
-        <f>1/(1 + 2.71^(-H42))</f>
-        <v>0.5</v>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J42" s="8">
         <f>F42-I42</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="9">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K42" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L42" s="8"/>
+      <c r="M42" s="9">
         <v>-0.87726978099999997</v>
       </c>
-      <c r="M42" s="8">
-        <f>1/(1 + 2.71^(-L42))</f>
+      <c r="N42" s="8">
+        <f t="shared" si="4"/>
         <v>0.29429951238480079</v>
       </c>
-      <c r="N42" s="8">
-        <f>F42-M42</f>
+      <c r="O42" s="8">
+        <f>F42-N42</f>
         <v>-0.29429951238480079</v>
       </c>
-      <c r="O42" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P42" s="8"/>
+      <c r="P42" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q42" s="8"/>
-    </row>
-    <row r="43" spans="1:17" s="8" customFormat="1">
+      <c r="R42" s="8"/>
+    </row>
+    <row r="43" spans="1:18" s="8" customFormat="1">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -2915,34 +3098,38 @@
       <c r="F43" s="8">
         <v>0</v>
       </c>
-      <c r="H43" s="8">
-        <v>0</v>
-      </c>
-      <c r="I43" s="8">
-        <f>1/(1 + 2.71^(-H43))</f>
-        <v>0.5</v>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J43" s="8">
         <f>F43-I43</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L43" s="9">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K43" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M43" s="9">
         <v>-1.0288170889999999</v>
       </c>
-      <c r="M43" s="8">
-        <f>1/(1 + 2.71^(-L43))</f>
+      <c r="N43" s="8">
+        <f t="shared" si="4"/>
         <v>0.26392291189059364</v>
       </c>
-      <c r="N43" s="8">
-        <f>F43-M43</f>
+      <c r="O43" s="8">
+        <f>F43-N43</f>
         <v>-0.26392291189059364</v>
       </c>
-      <c r="O43" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" s="8" customFormat="1">
+      <c r="P43" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="8" customFormat="1">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -2961,34 +3148,38 @@
       <c r="F44" s="8">
         <v>0</v>
       </c>
-      <c r="H44" s="8">
-        <v>0</v>
-      </c>
-      <c r="I44" s="8">
-        <f>1/(1 + 2.71^(-H44))</f>
-        <v>0.5</v>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J44" s="8">
         <f>F44-I44</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L44" s="9">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K44" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M44" s="9">
         <v>-0.66264235000000005</v>
       </c>
-      <c r="M44" s="8">
-        <f>1/(1 + 2.71^(-L44))</f>
+      <c r="N44" s="8">
+        <f t="shared" si="4"/>
         <v>0.3406002641546691</v>
       </c>
-      <c r="N44" s="8">
-        <f>F44-M44</f>
+      <c r="O44" s="8">
+        <f>F44-N44</f>
         <v>-0.3406002641546691</v>
       </c>
-      <c r="O44" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="P44" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3011,30 +3202,34 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <f>1/(1 + 2.71^(-H45))</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J45">
         <f>F45-I45</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L45" s="1">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
         <v>-0.80128747099999997</v>
       </c>
-      <c r="M45">
-        <f>1/(1 + 2.71^(-L45))</f>
+      <c r="N45">
+        <f t="shared" si="4"/>
         <v>0.31027318439782497</v>
       </c>
-      <c r="N45">
-        <f>F45-M45</f>
+      <c r="O45">
+        <f>F45-N45</f>
         <v>-0.31027318439782497</v>
       </c>
-      <c r="O45" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="P45" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3057,30 +3252,34 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <f>1/(1 + 2.71^(-H46))</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J46">
         <f>F46-I46</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L46" s="1">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K46" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
         <v>-1.115596241</v>
       </c>
-      <c r="M46">
-        <f>1/(1 + 2.71^(-L46))</f>
+      <c r="N46">
+        <f t="shared" si="4"/>
         <v>0.24746243004197402</v>
       </c>
-      <c r="N46">
-        <f>F46-M46</f>
+      <c r="O46">
+        <f>F46-N46</f>
         <v>-0.24746243004197402</v>
       </c>
-      <c r="O46" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="P46" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3103,30 +3302,34 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <f>1/(1 + 2.71^(-H47))</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J47">
         <f>F47-I47</f>
-        <v>0.5</v>
-      </c>
-      <c r="L47" s="1">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="K47" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
         <v>-0.279192838</v>
       </c>
-      <c r="M47">
-        <f>1/(1 + 2.71^(-L47))</f>
+      <c r="N47">
+        <f t="shared" si="4"/>
         <v>0.43086056878472917</v>
       </c>
-      <c r="N47">
-        <f>F47-M47</f>
+      <c r="O47">
+        <f>F47-N47</f>
         <v>0.56913943121527089</v>
       </c>
-      <c r="O47" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="P47" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3149,30 +3352,34 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <f>1/(1 + 2.71^(-H48))</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J48">
         <f>F48-I48</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L48" s="1">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K48" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
         <v>-0.38766817999999997</v>
       </c>
-      <c r="M48">
-        <f>1/(1 + 2.71^(-L48))</f>
+      <c r="N48">
+        <f t="shared" si="4"/>
         <v>0.40456368767348877</v>
       </c>
-      <c r="N48">
-        <f>F48-M48</f>
+      <c r="O48">
+        <f>F48-N48</f>
         <v>-0.40456368767348877</v>
       </c>
-      <c r="O48" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="P48" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3195,30 +3402,34 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <f>1/(1 + 2.71^(-H49))</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J49">
         <f>F49-I49</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L49" s="1">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K49" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
         <v>-0.879626613</v>
       </c>
-      <c r="M49">
-        <f>1/(1 + 2.71^(-L49))</f>
+      <c r="N49">
+        <f t="shared" si="4"/>
         <v>0.29381175784970687</v>
       </c>
-      <c r="N49">
-        <f>F49-M49</f>
+      <c r="O49">
+        <f>F49-N49</f>
         <v>-0.29381175784970687</v>
       </c>
-      <c r="O49" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="P49" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3241,30 +3452,34 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <f>1/(1 + 2.71^(-H50))</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J50">
         <f>F50-I50</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L50" s="1">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K50" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
         <v>-1.3187898300000001</v>
       </c>
-      <c r="M50">
-        <f>1/(1 + 2.71^(-L50))</f>
+      <c r="N50">
+        <f t="shared" si="4"/>
         <v>0.2116904593159506</v>
       </c>
-      <c r="N50">
-        <f>F50-M50</f>
+      <c r="O50">
+        <f>F50-N50</f>
         <v>-0.2116904593159506</v>
       </c>
-      <c r="O50" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="P50" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3287,30 +3502,34 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <f>1/(1 + 2.71^(-H51))</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J51">
         <f>F51-I51</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L51" s="1">
+        <v>-0.49990000000000001</v>
+      </c>
+      <c r="K51" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
         <v>-1.018090951</v>
       </c>
-      <c r="M51">
-        <f>1/(1 + 2.71^(-L51))</f>
+      <c r="N51">
+        <f t="shared" si="4"/>
         <v>0.26600553247806052</v>
       </c>
-      <c r="N51">
-        <f>F51-M51</f>
+      <c r="O51">
+        <f>F51-N51</f>
         <v>-0.26600553247806052</v>
       </c>
-      <c r="O51" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="P51" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3330,33 +3549,37 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>2.5741999999999998</v>
+        <v>0.37019999999999997</v>
       </c>
       <c r="I52">
-        <f>1/(1 + 2.71^(-H52))</f>
-        <v>0.92866395300446491</v>
+        <f t="shared" si="1"/>
+        <v>0.68500000000000005</v>
       </c>
       <c r="J52">
         <f>F52-I52</f>
-        <v>7.1336046995535085E-2</v>
-      </c>
-      <c r="L52" s="1">
+        <v>0.31499999999999995</v>
+      </c>
+      <c r="K52" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
         <v>-0.85357217900000004</v>
       </c>
-      <c r="M52">
-        <f>1/(1 + 2.71^(-L52))</f>
+      <c r="N52">
+        <f t="shared" si="4"/>
         <v>0.29922991683589872</v>
       </c>
-      <c r="N52">
-        <f>F52-M52</f>
+      <c r="O52">
+        <f>F52-N52</f>
         <v>0.70077008316410128</v>
       </c>
-      <c r="O52" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="P52" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3373,21 +3596,21 @@
         <v>107</v>
       </c>
       <c r="H53">
-        <v>2.5872999999999999</v>
+        <v>0.3216</v>
       </c>
       <c r="I53">
-        <f>1/(1 + 2.71^(-H53))</f>
-        <v>0.92952431458873785</v>
-      </c>
-      <c r="L53" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66070000000000007</v>
+      </c>
+      <c r="M53" s="1">
         <v>-0.97640399899999997</v>
       </c>
-      <c r="M53">
-        <f>1/(1 + 2.71^(-L53))</f>
+      <c r="N53">
+        <f t="shared" si="4"/>
         <v>0.27419842654452969</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:18">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3407,37 +3630,41 @@
         <v>1</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="2">
-        <v>4.5492999999999997</v>
-      </c>
-      <c r="I54" s="2">
-        <f>1/(1 + 2.71^(-H54))</f>
-        <v>0.98939133084149666</v>
+      <c r="H54">
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>0.79505000000000003</v>
       </c>
       <c r="J54" s="2">
         <f>F54-I54</f>
-        <v>1.0608669158503337E-2</v>
-      </c>
-      <c r="K54" s="2"/>
-      <c r="L54" s="3">
+        <v>0.20494999999999997</v>
+      </c>
+      <c r="K54" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="3">
         <v>0.80763366199999997</v>
       </c>
-      <c r="M54" s="2">
-        <f>1/(1 + 2.71^(-L54))</f>
+      <c r="N54" s="2">
+        <f t="shared" si="4"/>
         <v>0.69107915228330463</v>
       </c>
-      <c r="N54" s="2">
-        <f>F54-M54</f>
+      <c r="O54" s="2">
+        <f>F54-N54</f>
         <v>0.30892084771669537</v>
       </c>
-      <c r="O54" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P54" s="2"/>
+      <c r="P54" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3457,33 +3684,37 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>4.6468999999999996</v>
+        <v>0.43340000000000001</v>
       </c>
       <c r="I55">
-        <f>1/(1 + 2.71^(-H55))</f>
-        <v>0.99036547090689253</v>
+        <f t="shared" si="1"/>
+        <v>0.71660000000000001</v>
       </c>
       <c r="J55">
         <f>F55-I55</f>
-        <v>9.634529093107469E-3</v>
-      </c>
-      <c r="L55" s="1">
+        <v>0.28339999999999999</v>
+      </c>
+      <c r="K55" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
         <v>0.75252612600000002</v>
       </c>
-      <c r="M55">
-        <f>1/(1 + 2.71^(-L55))</f>
+      <c r="N55">
+        <f t="shared" si="4"/>
         <v>0.67922878987136448</v>
       </c>
-      <c r="N55">
-        <f>F55-M55</f>
+      <c r="O55">
+        <f>F55-N55</f>
         <v>0.32077121012863552</v>
       </c>
-      <c r="O55" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="P55" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3503,33 +3734,37 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>4.2346000000000004</v>
+        <v>0.44319999999999998</v>
       </c>
       <c r="I56">
-        <f>1/(1 + 2.71^(-H56))</f>
-        <v>0.98553822126112811</v>
+        <f t="shared" si="1"/>
+        <v>0.72150000000000003</v>
       </c>
       <c r="J56">
         <f>F56-I56</f>
-        <v>-0.98553822126112811</v>
-      </c>
-      <c r="L56" s="1">
+        <v>-0.72150000000000003</v>
+      </c>
+      <c r="K56" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
         <v>0.434423585</v>
       </c>
-      <c r="M56">
-        <f>1/(1 + 2.71^(-L56))</f>
+      <c r="N56">
+        <f t="shared" si="4"/>
         <v>0.60661319907810018</v>
       </c>
-      <c r="N56">
-        <f>F56-M56</f>
+      <c r="O56">
+        <f>F56-N56</f>
         <v>-0.60661319907810018</v>
       </c>
-      <c r="O56" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="P56" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3549,37 +3784,41 @@
         <v>0</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="2">
-        <v>0.45760000000000001</v>
-      </c>
-      <c r="I57" s="2">
-        <f>1/(1 + 2.71^(-H57))</f>
-        <v>0.612113201680071</v>
+      <c r="H57">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>0.52815000000000001</v>
       </c>
       <c r="J57" s="2">
         <f>F57-I57</f>
-        <v>-0.612113201680071</v>
-      </c>
-      <c r="K57" s="2"/>
-      <c r="L57" s="3">
+        <v>-0.52815000000000001</v>
+      </c>
+      <c r="K57" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="3">
         <v>-1.271870066</v>
       </c>
-      <c r="M57" s="2">
-        <f>1/(1 + 2.71^(-L57))</f>
+      <c r="N57" s="2">
+        <f t="shared" si="4"/>
         <v>0.21960167487016474</v>
       </c>
-      <c r="N57" s="2">
-        <f>F57-M57</f>
+      <c r="O57" s="2">
+        <f>F57-N57</f>
         <v>-0.21960167487016474</v>
       </c>
-      <c r="O57" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P57" s="2"/>
+      <c r="P57" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57" s="2"/>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3599,33 +3838,37 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>3.1343000000000001</v>
+        <v>0.33450000000000002</v>
       </c>
       <c r="I58">
-        <f>1/(1 + 2.71^(-H58))</f>
-        <v>0.95790163156922969</v>
+        <f t="shared" si="1"/>
+        <v>0.66715000000000002</v>
       </c>
       <c r="J58">
         <f>F58-I58</f>
-        <v>4.2098368430770305E-2</v>
-      </c>
-      <c r="L58" s="1">
+        <v>0.33284999999999998</v>
+      </c>
+      <c r="K58" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M58" s="1">
         <v>0.80313129900000002</v>
       </c>
-      <c r="M58">
-        <f>1/(1 + 2.71^(-L58))</f>
+      <c r="N58">
+        <f t="shared" si="4"/>
         <v>0.6901200603982095</v>
       </c>
-      <c r="N58">
-        <f>F58-M58</f>
+      <c r="O58">
+        <f>F58-N58</f>
         <v>0.3098799396017905</v>
       </c>
-      <c r="O58" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="P58" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3645,33 +3888,37 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>2.1335000000000002</v>
+        <v>0.2278</v>
       </c>
       <c r="I59">
-        <f>1/(1 + 2.71^(-H59))</f>
-        <v>0.89349891168459827</v>
+        <f t="shared" si="1"/>
+        <v>0.61380000000000001</v>
       </c>
       <c r="J59">
         <f>F59-I59</f>
-        <v>-0.89349891168459827</v>
-      </c>
-      <c r="L59" s="1">
+        <v>-0.61380000000000001</v>
+      </c>
+      <c r="K59" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
         <v>0.158384051</v>
       </c>
-      <c r="M59">
-        <f>1/(1 + 2.71^(-L59))</f>
+      <c r="N59">
+        <f t="shared" si="4"/>
         <v>0.53939337640728569</v>
       </c>
-      <c r="N59">
-        <f>F59-M59</f>
+      <c r="O59">
+        <f>F59-N59</f>
         <v>-0.53939337640728569</v>
       </c>
-      <c r="O59" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="P59" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3691,33 +3938,37 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>4.9104999999999999</v>
+        <v>0.52429999999999999</v>
       </c>
       <c r="I60">
-        <f>1/(1 + 2.71^(-H60))</f>
-        <v>0.99257548919495409</v>
+        <f t="shared" si="1"/>
+        <v>0.76205000000000001</v>
       </c>
       <c r="J60">
         <f>F60-I60</f>
-        <v>-0.99257548919495409</v>
-      </c>
-      <c r="L60" s="1">
+        <v>-0.76205000000000001</v>
+      </c>
+      <c r="K60" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
         <v>0.486092672</v>
       </c>
-      <c r="M60">
-        <f>1/(1 + 2.71^(-L60))</f>
+      <c r="N60">
+        <f t="shared" si="4"/>
         <v>0.61883573118467705</v>
       </c>
-      <c r="N60">
-        <f>F60-M60</f>
+      <c r="O60">
+        <f>F60-N60</f>
         <v>-0.61883573118467705</v>
       </c>
-      <c r="O60" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="P60" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3737,37 +3988,41 @@
         <v>0</v>
       </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="2">
-        <v>4.9482999999999997</v>
-      </c>
-      <c r="I61" s="2">
-        <f>1/(1 + 2.71^(-H61))</f>
-        <v>0.99284810926048261</v>
+      <c r="H61">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>0.74555000000000005</v>
       </c>
       <c r="J61" s="2">
         <f>F61-I61</f>
-        <v>-0.99284810926048261</v>
-      </c>
-      <c r="K61" s="2"/>
-      <c r="L61" s="3">
+        <v>-0.74555000000000005</v>
+      </c>
+      <c r="K61" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="2"/>
+      <c r="M61" s="3">
         <v>0.56125960699999999</v>
       </c>
-      <c r="M61" s="2">
-        <f>1/(1 + 2.71^(-L61))</f>
+      <c r="N61" s="2">
+        <f t="shared" si="4"/>
         <v>0.63634771811783541</v>
       </c>
-      <c r="N61" s="2">
-        <f>F61-M61</f>
+      <c r="O61" s="2">
+        <f>F61-N61</f>
         <v>-0.63634771811783541</v>
       </c>
-      <c r="O61" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="2"/>
+      <c r="P61" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Q61" s="2"/>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61" s="2"/>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3784,21 +4039,21 @@
         <v>107</v>
       </c>
       <c r="H62">
-        <v>7.0086000000000004</v>
+        <v>0.59289999999999998</v>
       </c>
       <c r="I62">
-        <f>1/(1 + 2.71^(-H62))</f>
-        <v>0.99907723632117673</v>
-      </c>
-      <c r="L62" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79635</v>
+      </c>
+      <c r="M62" s="1">
         <v>0.25744352100000001</v>
       </c>
-      <c r="M62">
-        <f>1/(1 + 2.71^(-L62))</f>
+      <c r="N62">
+        <f t="shared" si="4"/>
         <v>0.56381456928182738</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3815,21 +4070,21 @@
         <v>110</v>
       </c>
       <c r="H63">
-        <v>4.3574999999999999</v>
+        <v>0.36859999999999998</v>
       </c>
       <c r="I63">
-        <f>1/(1 + 2.71^(-H63))</f>
-        <v>0.98718452657163402</v>
-      </c>
-      <c r="L63" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="M63" s="1">
         <v>0.52488509699999997</v>
       </c>
-      <c r="M63">
-        <f>1/(1 + 2.71^(-L63))</f>
+      <c r="N63">
+        <f t="shared" si="4"/>
         <v>0.62791523287511442</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3852,30 +4107,34 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <f>1/(1 + 2.71^(-H64))</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J64">
         <f>F64-I64</f>
-        <v>0.5</v>
-      </c>
-      <c r="L64" s="1">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="K64" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
         <v>0.278400545</v>
       </c>
-      <c r="M64">
-        <f>1/(1 + 2.71^(-L64))</f>
+      <c r="N64">
+        <f t="shared" si="4"/>
         <v>0.5689457276013411</v>
       </c>
-      <c r="N64">
-        <f>F64-M64</f>
+      <c r="O64">
+        <f>F64-N64</f>
         <v>0.4310542723986589</v>
       </c>
-      <c r="O64" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="P64" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3895,33 +4154,37 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>4.3503999999999996</v>
+        <v>0.43640000000000001</v>
       </c>
       <c r="I65">
-        <f>1/(1 + 2.71^(-H65))</f>
-        <v>0.98709466737334306</v>
+        <f t="shared" si="1"/>
+        <v>0.71809999999999996</v>
       </c>
       <c r="J65">
         <f>F65-I65</f>
-        <v>-0.98709466737334306</v>
-      </c>
-      <c r="L65" s="1">
+        <v>-0.71809999999999996</v>
+      </c>
+      <c r="K65" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="1">
         <v>0.145772074</v>
       </c>
-      <c r="M65">
-        <f>1/(1 + 2.71^(-L65))</f>
+      <c r="N65">
+        <f t="shared" si="4"/>
         <v>0.53626800826114296</v>
       </c>
-      <c r="N65">
-        <f>F65-M65</f>
+      <c r="O65">
+        <f>F65-N65</f>
         <v>-0.53626800826114296</v>
       </c>
-      <c r="O65" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="P65" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3941,18 +4204,18 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <f>1/(1 + 2.71^(-H66))</f>
-        <v>0.5</v>
-      </c>
-      <c r="L66" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="M66" s="1">
         <v>-1.070305635</v>
       </c>
-      <c r="M66">
-        <f>1/(1 + 2.71^(-L66))</f>
+      <c r="N66">
+        <f t="shared" ref="N66:N97" si="5">1/(1 + 2.71^(-M66))</f>
         <v>0.25596645094627934</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3972,33 +4235,37 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>2.9338000000000002</v>
+        <v>0.2908</v>
       </c>
       <c r="I67">
-        <f>1/(1 + 2.71^(-H67))</f>
-        <v>0.94906117736176232</v>
+        <f t="shared" ref="I67:I101" si="6">(H67+1)/2 - 0.0001</f>
+        <v>0.64529999999999998</v>
       </c>
       <c r="J67">
         <f>F67-I67</f>
-        <v>-0.94906117736176232</v>
-      </c>
-      <c r="L67" s="1">
+        <v>-0.64529999999999998</v>
+      </c>
+      <c r="K67" t="b">
+        <f t="shared" ref="K67:K101" si="7">ABS(J67)&lt; 0.5</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
         <v>0.69807259600000005</v>
       </c>
-      <c r="M67">
-        <f>1/(1 + 2.71^(-L67))</f>
+      <c r="N67">
+        <f t="shared" si="5"/>
         <v>0.66728756389855015</v>
       </c>
-      <c r="N67">
-        <f>F67-M67</f>
+      <c r="O67">
+        <f>F67-N67</f>
         <v>-0.66728756389855015</v>
       </c>
-      <c r="O67" t="b">
-        <f t="shared" ref="O67:O101" si="1">ABS(N67) &lt; 0.5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="P67" t="b">
+        <f t="shared" ref="P67:P101" si="8">ABS(O67) &lt; 0.5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -4018,37 +4285,41 @@
         <v>0</v>
       </c>
       <c r="G68" s="2"/>
-      <c r="H68" s="2">
-        <v>4.3102999999999998</v>
-      </c>
-      <c r="I68" s="2">
-        <f>1/(1 + 2.71^(-H68))</f>
-        <v>0.9865753575039421</v>
+      <c r="H68">
+        <v>0.41339999999999999</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="6"/>
+        <v>0.70660000000000001</v>
       </c>
       <c r="J68" s="2">
         <f>F68-I68</f>
-        <v>-0.9865753575039421</v>
-      </c>
-      <c r="K68" s="2"/>
-      <c r="L68" s="3">
+        <v>-0.70660000000000001</v>
+      </c>
+      <c r="K68" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="2"/>
+      <c r="M68" s="3">
         <v>-0.77546308200000003</v>
       </c>
-      <c r="M68" s="2">
-        <f>1/(1 + 2.71^(-L68))</f>
+      <c r="N68" s="2">
+        <f t="shared" si="5"/>
         <v>0.3158095740938282</v>
       </c>
-      <c r="N68" s="2">
-        <f>F68-M68</f>
+      <c r="O68" s="2">
+        <f>F68-N68</f>
         <v>-0.3158095740938282</v>
       </c>
-      <c r="O68" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P68" s="2"/>
+      <c r="P68" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="Q68" s="2"/>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68" s="2"/>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4068,33 +4339,37 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>5.8597999999999999</v>
+        <v>0.58079999999999998</v>
       </c>
       <c r="I69">
-        <f>1/(1 + 2.71^(-H69))</f>
-        <v>0.99710514040578879</v>
+        <f t="shared" si="6"/>
+        <v>0.7903</v>
       </c>
       <c r="J69">
         <f>F69-I69</f>
-        <v>-0.99710514040578879</v>
-      </c>
-      <c r="L69" s="1">
+        <v>-0.7903</v>
+      </c>
+      <c r="K69" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
         <v>0.90056524100000002</v>
       </c>
-      <c r="M69">
-        <f>1/(1 + 2.71^(-L69))</f>
+      <c r="N69">
+        <f t="shared" si="5"/>
         <v>0.71050074811807584</v>
       </c>
-      <c r="N69">
-        <f>F69-M69</f>
+      <c r="O69">
+        <f>F69-N69</f>
         <v>-0.71050074811807584</v>
       </c>
-      <c r="O69" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="P69" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4114,33 +4389,37 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>5.5396000000000001</v>
+        <v>0.55410000000000004</v>
       </c>
       <c r="I70">
-        <f>1/(1 + 2.71^(-H70))</f>
-        <v>0.99602083690277721</v>
+        <f t="shared" si="6"/>
+        <v>0.77695000000000003</v>
       </c>
       <c r="J70">
         <f>F70-I70</f>
-        <v>3.9791630972227932E-3</v>
-      </c>
-      <c r="L70" s="1">
+        <v>0.22304999999999997</v>
+      </c>
+      <c r="K70" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
         <v>0.81878830499999999</v>
       </c>
-      <c r="M70">
-        <f>1/(1 + 2.71^(-L70))</f>
+      <c r="N70">
+        <f t="shared" si="5"/>
         <v>0.69344821818466285</v>
       </c>
-      <c r="N70">
-        <f>F70-M70</f>
+      <c r="O70">
+        <f>F70-N70</f>
         <v>0.30655178181533715</v>
       </c>
-      <c r="O70" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="P70" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4160,33 +4439,37 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>5.2389999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="I71">
-        <f>1/(1 + 2.71^(-H71))</f>
-        <v>0.9946378511264119</v>
+        <f t="shared" si="6"/>
+        <v>0.75540000000000007</v>
       </c>
       <c r="J71">
         <f>F71-I71</f>
-        <v>5.3621488735881018E-3</v>
-      </c>
-      <c r="L71" s="1">
+        <v>0.24459999999999993</v>
+      </c>
+      <c r="K71" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
         <v>0.90056524100000002</v>
       </c>
-      <c r="M71">
-        <f>1/(1 + 2.71^(-L71))</f>
+      <c r="N71">
+        <f t="shared" si="5"/>
         <v>0.71050074811807584</v>
       </c>
-      <c r="N71">
-        <f>F71-M71</f>
+      <c r="O71">
+        <f>F71-N71</f>
         <v>0.28949925188192416</v>
       </c>
-      <c r="O71" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="P71" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4206,33 +4489,37 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>7.2016</v>
+        <v>0.67930000000000001</v>
       </c>
       <c r="I72">
-        <f>1/(1 + 2.71^(-H72))</f>
-        <v>0.99923862682987863</v>
+        <f t="shared" si="6"/>
+        <v>0.83955000000000002</v>
       </c>
       <c r="J72">
         <f>F72-I72</f>
-        <v>7.6137317012137107E-4</v>
-      </c>
-      <c r="L72" s="1">
+        <v>0.16044999999999998</v>
+      </c>
+      <c r="K72" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M72" s="1">
         <v>0.85193146799999997</v>
       </c>
-      <c r="M72">
-        <f>1/(1 + 2.71^(-L72))</f>
+      <c r="N72">
+        <f t="shared" si="5"/>
         <v>0.70042697742167537</v>
       </c>
-      <c r="N72">
-        <f>F72-M72</f>
+      <c r="O72">
+        <f>F72-N72</f>
         <v>0.29957302257832463</v>
       </c>
-      <c r="O72" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="P72" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4252,33 +4539,37 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>6.6782000000000004</v>
+        <v>0.5968</v>
       </c>
       <c r="I73">
-        <f>1/(1 + 2.71^(-H73))</f>
-        <v>0.99871770711771635</v>
+        <f t="shared" si="6"/>
+        <v>0.79830000000000001</v>
       </c>
       <c r="J73">
         <f>F73-I73</f>
-        <v>-0.99871770711771635</v>
-      </c>
-      <c r="L73" s="1">
+        <v>-0.79830000000000001</v>
+      </c>
+      <c r="K73" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="1">
         <v>0.45252240900000001</v>
       </c>
-      <c r="M73">
-        <f>1/(1 + 2.71^(-L73))</f>
+      <c r="N73">
+        <f t="shared" si="5"/>
         <v>0.61091062477340563</v>
       </c>
-      <c r="N73">
-        <f>F73-M73</f>
+      <c r="O73">
+        <f>F73-N73</f>
         <v>-0.61091062477340563</v>
       </c>
-      <c r="O73" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="P73" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -4298,37 +4589,41 @@
         <v>1</v>
       </c>
       <c r="G74" s="4"/>
-      <c r="H74" s="4">
-        <v>3.7759999999999998</v>
-      </c>
-      <c r="I74" s="4">
-        <f>1/(1 + 2.71^(-H74))</f>
-        <v>0.97734541874009395</v>
+      <c r="H74">
+        <v>0.4662</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="6"/>
+        <v>0.73299999999999998</v>
       </c>
       <c r="J74" s="4">
         <f>F74-I74</f>
-        <v>2.2654581259906048E-2</v>
-      </c>
-      <c r="K74" s="4"/>
-      <c r="L74" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="K74" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L74" s="4"/>
+      <c r="M74" s="5">
         <v>0.72626611100000005</v>
       </c>
-      <c r="M74" s="4">
-        <f>1/(1 + 2.71^(-L74))</f>
+      <c r="N74" s="4">
+        <f t="shared" si="5"/>
         <v>0.67349823219456517</v>
       </c>
-      <c r="N74" s="4">
-        <f>F74-M74</f>
+      <c r="O74" s="4">
+        <f>F74-N74</f>
         <v>0.32650176780543483</v>
       </c>
-      <c r="O74" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P74" s="10"/>
+      <c r="P74" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="Q74" s="10"/>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74" s="10"/>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4345,23 +4640,23 @@
         <v>112</v>
       </c>
       <c r="H75">
-        <v>6.8952</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="I75">
-        <f>1/(1 + 2.71^(-H75))</f>
-        <v>0.99896690265563493</v>
-      </c>
-      <c r="L75" s="1">
+        <f t="shared" si="6"/>
+        <v>0.79154999999999998</v>
+      </c>
+      <c r="M75" s="1">
         <v>0.251333802</v>
       </c>
-      <c r="M75">
-        <f>1/(1 + 2.71^(-L75))</f>
+      <c r="N75">
+        <f t="shared" si="5"/>
         <v>0.56231602711269224</v>
       </c>
-      <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75" s="8"/>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4381,37 +4676,41 @@
         <v>1</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="H76" s="2">
-        <v>6.0625999999999998</v>
-      </c>
-      <c r="I76" s="2">
-        <f>1/(1 + 2.71^(-H76))</f>
-        <v>0.99763379955532006</v>
+      <c r="H76">
+        <v>0.62209999999999999</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="6"/>
+        <v>0.81095000000000006</v>
       </c>
       <c r="J76" s="2">
         <f>F76-I76</f>
-        <v>2.3662004446799445E-3</v>
-      </c>
-      <c r="K76" s="2"/>
-      <c r="L76" s="3">
+        <v>0.18904999999999994</v>
+      </c>
+      <c r="K76" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="M76" s="3">
         <v>0.65197911200000003</v>
       </c>
-      <c r="M76" s="2">
-        <f>1/(1 + 2.71^(-L76))</f>
+      <c r="N76" s="2">
+        <f t="shared" si="5"/>
         <v>0.657008138362702</v>
       </c>
-      <c r="N76" s="2">
-        <f>F76-M76</f>
+      <c r="O76" s="2">
+        <f>F76-N76</f>
         <v>0.342991861637298</v>
       </c>
-      <c r="O76" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P76" s="10"/>
+      <c r="P76" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="Q76" s="10"/>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76" s="10"/>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4431,35 +4730,39 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>5.7725999999999997</v>
+        <v>0.58860000000000001</v>
       </c>
       <c r="I77">
-        <f>1/(1 + 2.71^(-H77))</f>
-        <v>0.99684304599106188</v>
+        <f t="shared" si="6"/>
+        <v>0.79420000000000002</v>
       </c>
       <c r="J77">
         <f>F77-I77</f>
-        <v>3.1569540089381176E-3</v>
-      </c>
-      <c r="L77" s="1">
+        <v>0.20579999999999998</v>
+      </c>
+      <c r="K77" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M77" s="1">
         <v>0.20795007500000001</v>
       </c>
-      <c r="M77">
-        <f>1/(1 + 2.71^(-L77))</f>
+      <c r="N77">
+        <f t="shared" si="5"/>
         <v>0.55164404759225827</v>
       </c>
-      <c r="N77">
-        <f>F77-M77</f>
+      <c r="O77">
+        <f>F77-N77</f>
         <v>0.44835595240774173</v>
       </c>
-      <c r="O77" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P77" s="8"/>
+      <c r="P77" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="Q77" s="8"/>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77" s="8"/>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4479,35 +4782,39 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>5.8765000000000001</v>
+        <v>0.62739999999999996</v>
       </c>
       <c r="I78">
-        <f>1/(1 + 2.71^(-H78))</f>
-        <v>0.99715280195941758</v>
+        <f t="shared" si="6"/>
+        <v>0.81359999999999999</v>
       </c>
       <c r="J78">
         <f>F78-I78</f>
-        <v>-0.99715280195941758</v>
-      </c>
-      <c r="L78" s="1">
+        <v>-0.81359999999999999</v>
+      </c>
+      <c r="K78" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="1">
         <v>-0.311375658</v>
       </c>
-      <c r="M78">
-        <f>1/(1 + 2.71^(-L78))</f>
+      <c r="N78">
+        <f t="shared" si="5"/>
         <v>0.42301087346874788</v>
       </c>
-      <c r="N78">
-        <f>F78-M78</f>
+      <c r="O78">
+        <f>F78-N78</f>
         <v>-0.42301087346874788</v>
       </c>
-      <c r="O78" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P78" s="8"/>
+      <c r="P78" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="Q78" s="8"/>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78" s="8"/>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4527,35 +4834,39 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>6.3391000000000002</v>
+        <v>0.66590000000000005</v>
       </c>
       <c r="I79">
-        <f>1/(1 + 2.71^(-H79))</f>
-        <v>0.99820285476472226</v>
+        <f t="shared" si="6"/>
+        <v>0.83285000000000009</v>
       </c>
       <c r="J79">
         <f>F79-I79</f>
-        <v>1.7971452352777417E-3</v>
-      </c>
-      <c r="L79" s="1">
+        <v>0.16714999999999991</v>
+      </c>
+      <c r="K79" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M79" s="1">
         <v>0.93154243400000003</v>
       </c>
-      <c r="M79">
-        <f>1/(1 + 2.71^(-L79))</f>
+      <c r="N79">
+        <f t="shared" si="5"/>
         <v>0.71681146072323687</v>
       </c>
-      <c r="N79">
-        <f>F79-M79</f>
+      <c r="O79">
+        <f>F79-N79</f>
         <v>0.28318853927676313</v>
       </c>
-      <c r="O79" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P79" s="8"/>
+      <c r="P79" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="Q79" s="8"/>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79" s="8"/>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4575,37 +4886,41 @@
         <v>0</v>
       </c>
       <c r="G80" s="2"/>
-      <c r="H80" s="2">
-        <v>6.7771999999999997</v>
-      </c>
-      <c r="I80" s="2">
-        <f>1/(1 + 2.71^(-H80))</f>
-        <v>0.99883808164127852</v>
+      <c r="H80">
+        <v>0.71619999999999995</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="6"/>
+        <v>0.85799999999999998</v>
       </c>
       <c r="J80" s="2">
         <f>F80-I80</f>
-        <v>-0.99883808164127852</v>
-      </c>
-      <c r="K80" s="2"/>
-      <c r="L80" s="3">
+        <v>-0.85799999999999998</v>
+      </c>
+      <c r="K80" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="2"/>
+      <c r="M80" s="3">
         <v>0.74689614500000001</v>
       </c>
-      <c r="M80" s="2">
-        <f>1/(1 + 2.71^(-L80))</f>
+      <c r="N80" s="2">
+        <f t="shared" si="5"/>
         <v>0.67800466097814338</v>
       </c>
-      <c r="N80" s="2">
-        <f>F80-M80</f>
+      <c r="O80" s="2">
+        <f>F80-N80</f>
         <v>-0.67800466097814338</v>
       </c>
-      <c r="O80" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P80" s="10"/>
+      <c r="P80" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="Q80" s="10"/>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80" s="10"/>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4625,37 +4940,41 @@
         <v>1</v>
       </c>
       <c r="G81" s="2"/>
-      <c r="H81" s="2">
-        <v>5.0662000000000003</v>
-      </c>
-      <c r="I81" s="2">
-        <f>1/(1 + 2.71^(-H81))</f>
-        <v>0.99363617289577943</v>
+      <c r="H81">
+        <v>0.503</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="6"/>
+        <v>0.75140000000000007</v>
       </c>
       <c r="J81" s="2">
         <f>F81-I81</f>
-        <v>6.3638271042205652E-3</v>
-      </c>
-      <c r="K81" s="2"/>
-      <c r="L81" s="3">
+        <v>0.24859999999999993</v>
+      </c>
+      <c r="K81" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L81" s="2"/>
+      <c r="M81" s="3">
         <v>0.65147105800000005</v>
       </c>
-      <c r="M81" s="2">
-        <f>1/(1 + 2.71^(-L81))</f>
+      <c r="N81" s="2">
+        <f t="shared" si="5"/>
         <v>0.65689398945709565</v>
       </c>
-      <c r="N81" s="2">
-        <f>F81-M81</f>
+      <c r="O81" s="2">
+        <f>F81-N81</f>
         <v>0.34310601054290435</v>
       </c>
-      <c r="O81" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P81" s="10"/>
+      <c r="P81" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="Q81" s="10"/>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81" s="10"/>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -4675,37 +4994,41 @@
         <v>1</v>
       </c>
       <c r="G82" s="4"/>
-      <c r="H82" s="4">
-        <v>3.2464</v>
-      </c>
-      <c r="I82" s="4">
-        <f>1/(1 + 2.71^(-H82))</f>
-        <v>0.96218475104380119</v>
+      <c r="H82">
+        <v>0.28179999999999999</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="6"/>
+        <v>0.64080000000000004</v>
       </c>
       <c r="J82" s="4">
         <f>F82-I82</f>
-        <v>3.781524895619881E-2</v>
-      </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="5">
+        <v>0.35919999999999996</v>
+      </c>
+      <c r="K82" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L82" s="4"/>
+      <c r="M82" s="5">
         <v>0.31285898099999998</v>
       </c>
-      <c r="M82" s="4">
-        <f>1/(1 + 2.71^(-L82))</f>
+      <c r="N82" s="4">
+        <f t="shared" si="5"/>
         <v>0.57735001927699992</v>
       </c>
-      <c r="N82" s="4">
-        <f>F82-M82</f>
+      <c r="O82" s="4">
+        <f>F82-N82</f>
         <v>0.42264998072300008</v>
       </c>
-      <c r="O82" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P82" s="10"/>
+      <c r="P82" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="Q82" s="10"/>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82" s="10"/>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4722,21 +5045,21 @@
         <v>107</v>
       </c>
       <c r="H83">
-        <v>8.1852</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="I83">
-        <f>1/(1 + 2.71^(-H83))</f>
-        <v>0.99971428327895628</v>
-      </c>
-      <c r="L83" s="1">
+        <f t="shared" si="6"/>
+        <v>0.84610000000000007</v>
+      </c>
+      <c r="M83" s="1">
         <v>0.53078889500000004</v>
       </c>
-      <c r="M83">
-        <f>1/(1 + 2.71^(-L83))</f>
+      <c r="N83">
+        <f t="shared" si="5"/>
         <v>0.62928933521837904</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4753,21 +5076,21 @@
         <v>107</v>
       </c>
       <c r="H84">
-        <v>2.5306000000000002</v>
+        <v>0.2949</v>
       </c>
       <c r="I84">
-        <f>1/(1 + 2.71^(-H84))</f>
-        <v>0.92573018575116528</v>
-      </c>
-      <c r="L84" s="1">
+        <f t="shared" si="6"/>
+        <v>0.64734999999999998</v>
+      </c>
+      <c r="M84" s="1">
         <v>-1.577624589</v>
       </c>
-      <c r="M84">
-        <f>1/(1 + 2.71^(-L84))</f>
+      <c r="N84">
+        <f t="shared" si="5"/>
         <v>0.17181607609707222</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4787,33 +5110,37 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>7.1418999999999997</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="I85">
-        <f>1/(1 + 2.71^(-H85))</f>
-        <v>0.99919197358534784</v>
+        <f t="shared" si="6"/>
+        <v>0.88114999999999999</v>
       </c>
       <c r="J85">
         <f>F85-I85</f>
-        <v>-0.99919197358534784</v>
-      </c>
-      <c r="L85" s="1">
+        <v>-0.88114999999999999</v>
+      </c>
+      <c r="K85" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="1">
         <v>0.36558026500000002</v>
       </c>
-      <c r="M85">
-        <f>1/(1 + 2.71^(-L85))</f>
+      <c r="N85">
+        <f t="shared" si="5"/>
         <v>0.59012079191376443</v>
       </c>
-      <c r="N85">
-        <f>F85-M85</f>
+      <c r="O85">
+        <f>F85-N85</f>
         <v>-0.59012079191376443</v>
       </c>
-      <c r="O85" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="P85" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4833,37 +5160,41 @@
         <v>0</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="2">
-        <v>1.9656</v>
-      </c>
-      <c r="I86" s="2">
-        <f>1/(1 + 2.71^(-H86))</f>
-        <v>0.87648989887976669</v>
+      <c r="H86">
+        <v>0.255</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="6"/>
+        <v>0.62739999999999996</v>
       </c>
       <c r="J86" s="2">
         <f>F86-I86</f>
-        <v>-0.87648989887976669</v>
-      </c>
-      <c r="K86" s="2"/>
-      <c r="L86" s="3">
+        <v>-0.62739999999999996</v>
+      </c>
+      <c r="K86" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="2"/>
+      <c r="M86" s="3">
         <v>-0.707682747</v>
       </c>
-      <c r="M86" s="2">
-        <f>1/(1 + 2.71^(-L86))</f>
+      <c r="N86" s="2">
+        <f t="shared" si="5"/>
         <v>0.33058877000621545</v>
       </c>
-      <c r="N86" s="2">
-        <f>F86-M86</f>
+      <c r="O86" s="2">
+        <f>F86-N86</f>
         <v>-0.33058877000621545</v>
       </c>
-      <c r="O86" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P86" s="2"/>
+      <c r="P86" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="Q86" s="2"/>
-    </row>
-    <row r="87" spans="1:17" s="2" customFormat="1">
+      <c r="R86" s="2"/>
+    </row>
+    <row r="87" spans="1:18" s="2" customFormat="1">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4882,27 +5213,28 @@
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87">
-        <v>7.6877000000000004</v>
+        <v>0.65029999999999999</v>
       </c>
       <c r="I87">
-        <f>1/(1 + 2.71^(-H87))</f>
-        <v>0.9995309078011072</v>
+        <f t="shared" si="6"/>
+        <v>0.82505000000000006</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
-      <c r="L87" s="1">
+      <c r="L87"/>
+      <c r="M87" s="1">
         <v>0.57418883300000001</v>
       </c>
-      <c r="M87">
-        <f>1/(1 + 2.71^(-L87))</f>
+      <c r="N87">
+        <f t="shared" si="5"/>
         <v>0.63932525751702918</v>
       </c>
-      <c r="N87"/>
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
-    </row>
-    <row r="88" spans="1:17" s="2" customFormat="1">
+      <c r="R87"/>
+    </row>
+    <row r="88" spans="1:18" s="2" customFormat="1">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4921,34 +5253,38 @@
       <c r="F88" s="2">
         <v>0</v>
       </c>
-      <c r="H88" s="2">
-        <v>4.7896000000000001</v>
-      </c>
-      <c r="I88" s="2">
-        <f>1/(1 + 2.71^(-H88))</f>
-        <v>0.99163239844517337</v>
+      <c r="H88">
+        <v>0.47560000000000002</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="6"/>
+        <v>0.73770000000000002</v>
       </c>
       <c r="J88" s="2">
         <f>F88-I88</f>
-        <v>-0.99163239844517337</v>
-      </c>
-      <c r="L88" s="3">
+        <v>-0.73770000000000002</v>
+      </c>
+      <c r="K88" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
         <v>0.78023719999999996</v>
       </c>
-      <c r="M88" s="2">
-        <f>1/(1 + 2.71^(-L88))</f>
+      <c r="N88" s="2">
+        <f t="shared" si="5"/>
         <v>0.68521793774448481</v>
       </c>
-      <c r="N88" s="2">
-        <f>F88-M88</f>
+      <c r="O88" s="2">
+        <f>F88-N88</f>
         <v>-0.68521793774448481</v>
       </c>
-      <c r="O88" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" s="2" customFormat="1">
+      <c r="P88" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" s="2" customFormat="1">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4967,27 +5303,28 @@
       <c r="F89"/>
       <c r="G89"/>
       <c r="H89">
-        <v>8.6653000000000002</v>
+        <v>0.73309999999999997</v>
       </c>
       <c r="I89">
-        <f>1/(1 + 2.71^(-H89))</f>
-        <v>0.99982294251057113</v>
+        <f t="shared" si="6"/>
+        <v>0.86644999999999994</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
-      <c r="L89" s="1">
+      <c r="L89"/>
+      <c r="M89" s="1">
         <v>0.63591677099999999</v>
       </c>
-      <c r="M89">
-        <f>1/(1 + 2.71^(-L89))</f>
+      <c r="N89">
+        <f t="shared" si="5"/>
         <v>0.65339054145503661</v>
       </c>
-      <c r="N89"/>
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="R89"/>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5007,33 +5344,37 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>7.0603999999999996</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="I90">
-        <f>1/(1 + 2.71^(-H90))</f>
-        <v>0.99912363938136983</v>
+        <f t="shared" si="6"/>
+        <v>0.83289999999999997</v>
       </c>
       <c r="J90">
         <f>F90-I90</f>
-        <v>-0.99912363938136983</v>
-      </c>
-      <c r="L90" s="1">
+        <v>-0.83289999999999997</v>
+      </c>
+      <c r="K90" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="1">
         <v>0.82095427499999996</v>
       </c>
-      <c r="M90">
-        <f>1/(1 + 2.71^(-L90))</f>
+      <c r="N90">
+        <f t="shared" si="5"/>
         <v>0.69390705848485534</v>
       </c>
-      <c r="N90">
-        <f>F90-M90</f>
+      <c r="O90">
+        <f>F90-N90</f>
         <v>-0.69390705848485534</v>
       </c>
-      <c r="O90" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="P90" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5053,33 +5394,37 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>6.2675999999999998</v>
+        <v>0.66239999999999999</v>
       </c>
       <c r="I91">
-        <f>1/(1 + 2.71^(-H91))</f>
-        <v>0.9980703310074962</v>
+        <f t="shared" si="6"/>
+        <v>0.83109999999999995</v>
       </c>
       <c r="J91">
         <f>F91-I91</f>
-        <v>1.9296689925037969E-3</v>
-      </c>
-      <c r="L91" s="1">
+        <v>0.16890000000000005</v>
+      </c>
+      <c r="K91" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M91" s="1">
         <v>0.47306588500000002</v>
       </c>
-      <c r="M91">
-        <f>1/(1 + 2.71^(-L91))</f>
+      <c r="N91">
+        <f t="shared" si="5"/>
         <v>0.61576768198113463</v>
       </c>
-      <c r="N91">
-        <f>F91-M91</f>
+      <c r="O91">
+        <f>F91-N91</f>
         <v>0.38423231801886537</v>
       </c>
-      <c r="O91" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="P91" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -5099,37 +5444,41 @@
         <v>1</v>
       </c>
       <c r="G92" s="2"/>
-      <c r="H92" s="2">
-        <v>5.7257999999999996</v>
-      </c>
-      <c r="I92" s="2">
-        <f>1/(1 + 2.71^(-H92))</f>
-        <v>0.99669275980348138</v>
+      <c r="H92">
+        <v>0.55769999999999997</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="6"/>
+        <v>0.77875000000000005</v>
       </c>
       <c r="J92" s="2">
         <f>F92-I92</f>
-        <v>3.3072401965186238E-3</v>
-      </c>
-      <c r="K92" s="2"/>
-      <c r="L92" s="3">
+        <v>0.22124999999999995</v>
+      </c>
+      <c r="K92" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L92" s="2"/>
+      <c r="M92" s="3">
         <v>0.79630899700000002</v>
       </c>
-      <c r="M92" s="2">
-        <f>1/(1 + 2.71^(-L92))</f>
+      <c r="N92" s="2">
+        <f t="shared" si="5"/>
         <v>0.68866365556936093</v>
       </c>
-      <c r="N92" s="2">
-        <f>F92-M92</f>
+      <c r="O92" s="2">
+        <f>F92-N92</f>
         <v>0.31133634443063907</v>
       </c>
-      <c r="O92" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P92" s="2"/>
+      <c r="P92" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="Q92" s="2"/>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92" s="2"/>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5149,33 +5498,37 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>3.4670000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I93">
-        <f>1/(1 + 2.71^(-H93))</f>
-        <v>0.96942205026568085</v>
+        <f t="shared" si="6"/>
+        <v>0.6764</v>
       </c>
       <c r="J93">
         <f>F93-I93</f>
-        <v>-0.96942205026568085</v>
-      </c>
-      <c r="L93" s="1">
+        <v>-0.6764</v>
+      </c>
+      <c r="K93" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="1">
         <v>0.50861530499999996</v>
       </c>
-      <c r="M93">
-        <f>1/(1 + 2.71^(-L93))</f>
+      <c r="N93">
+        <f t="shared" si="5"/>
         <v>0.62411779949107749</v>
       </c>
-      <c r="N93">
-        <f>F93-M93</f>
+      <c r="O93">
+        <f>F93-N93</f>
         <v>-0.62411779949107749</v>
       </c>
-      <c r="O93" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="P93" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5195,33 +5548,37 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>5.6144999999999996</v>
+        <v>0.51180000000000003</v>
       </c>
       <c r="I94">
-        <f>1/(1 + 2.71^(-H94))</f>
-        <v>0.99630608668259713</v>
+        <f t="shared" si="6"/>
+        <v>0.75580000000000003</v>
       </c>
       <c r="J94">
         <f>F94-I94</f>
-        <v>-0.99630608668259713</v>
-      </c>
-      <c r="L94" s="1">
+        <v>-0.75580000000000003</v>
+      </c>
+      <c r="K94" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
         <v>0.61140367299999998</v>
       </c>
-      <c r="M94">
-        <f>1/(1 + 2.71^(-L94))</f>
+      <c r="N94">
+        <f t="shared" si="5"/>
         <v>0.64783541947496615</v>
       </c>
-      <c r="N94">
-        <f>F94-M94</f>
+      <c r="O94">
+        <f>F94-N94</f>
         <v>-0.64783541947496615</v>
       </c>
-      <c r="O94" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="P94" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5241,33 +5598,37 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>7.8581000000000003</v>
+        <v>0.74119999999999997</v>
       </c>
       <c r="I95">
-        <f>1/(1 + 2.71^(-H95))</f>
-        <v>0.99960416693130083</v>
+        <f t="shared" si="6"/>
+        <v>0.87050000000000005</v>
       </c>
       <c r="J95">
         <f>F95-I95</f>
-        <v>3.9583306869916957E-4</v>
-      </c>
-      <c r="L95" s="1">
+        <v>0.12949999999999995</v>
+      </c>
+      <c r="K95" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M95" s="1">
         <v>0.93154243400000003</v>
       </c>
-      <c r="M95">
-        <f>1/(1 + 2.71^(-L95))</f>
+      <c r="N95">
+        <f t="shared" si="5"/>
         <v>0.71681146072323687</v>
       </c>
-      <c r="N95">
-        <f>F95-M95</f>
+      <c r="O95">
+        <f>F95-N95</f>
         <v>0.28318853927676313</v>
       </c>
-      <c r="O95" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="P95" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5287,33 +5648,37 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>7.1422999999999996</v>
+        <v>0.65110000000000001</v>
       </c>
       <c r="I96">
-        <f>1/(1 + 2.71^(-H96))</f>
-        <v>0.99919229548523036</v>
+        <f t="shared" si="6"/>
+        <v>0.82545000000000002</v>
       </c>
       <c r="J96">
         <f>F96-I96</f>
-        <v>-0.99919229548523036</v>
-      </c>
-      <c r="L96" s="1">
+        <v>-0.82545000000000002</v>
+      </c>
+      <c r="K96" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="1">
         <v>0.84515255700000003</v>
       </c>
-      <c r="M96">
-        <f>1/(1 + 2.71^(-L96))</f>
+      <c r="N96">
+        <f t="shared" si="5"/>
         <v>0.69900698740799383</v>
       </c>
-      <c r="N96">
-        <f>F96-M96</f>
+      <c r="O96">
+        <f>F96-N96</f>
         <v>-0.69900698740799383</v>
       </c>
-      <c r="O96" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" s="2" customFormat="1">
+      <c r="P96" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" s="2" customFormat="1">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5334,36 +5699,40 @@
       </c>
       <c r="G97"/>
       <c r="H97">
-        <v>5.6227</v>
+        <v>0.57330000000000003</v>
       </c>
       <c r="I97">
-        <f>1/(1 + 2.71^(-H97))</f>
-        <v>0.99633605105704259</v>
+        <f t="shared" si="6"/>
+        <v>0.78655000000000008</v>
       </c>
       <c r="J97">
         <f>F97-I97</f>
-        <v>3.6639489429574068E-3</v>
-      </c>
-      <c r="K97"/>
-      <c r="L97" s="1">
+        <v>0.21344999999999992</v>
+      </c>
+      <c r="K97" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L97"/>
+      <c r="M97" s="1">
         <v>0.735034191</v>
       </c>
-      <c r="M97">
-        <f>1/(1 + 2.71^(-L97))</f>
+      <c r="N97">
+        <f t="shared" si="5"/>
         <v>0.67541751233123259</v>
       </c>
-      <c r="N97">
-        <f>F97-M97</f>
+      <c r="O97">
+        <f>F97-N97</f>
         <v>0.32458248766876741</v>
       </c>
-      <c r="O97" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P97"/>
+      <c r="P97" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="Q97"/>
-    </row>
-    <row r="98" spans="1:17" s="2" customFormat="1">
+      <c r="R97"/>
+    </row>
+    <row r="98" spans="1:18" s="2" customFormat="1">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5387,33 +5756,37 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <f>1/(1 + 2.71^(-H98))</f>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.49990000000000001</v>
       </c>
       <c r="J98">
         <f>F98-I98</f>
-        <v>0.5</v>
-      </c>
-      <c r="K98"/>
-      <c r="L98" s="1">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="K98" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L98"/>
+      <c r="M98" s="1">
         <v>-0.67072387899999997</v>
       </c>
-      <c r="M98">
-        <f>1/(1 + 2.71^(-L98))</f>
+      <c r="N98">
+        <f t="shared" ref="N98:N129" si="9">1/(1 + 2.71^(-M98))</f>
         <v>0.33879308864996277</v>
       </c>
-      <c r="N98">
-        <f>F98-M98</f>
+      <c r="O98">
+        <f>F98-N98</f>
         <v>0.66120691135003717</v>
       </c>
-      <c r="O98" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P98"/>
+      <c r="P98" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="Q98"/>
-    </row>
-    <row r="99" spans="1:17" s="2" customFormat="1">
+      <c r="R98"/>
+    </row>
+    <row r="99" spans="1:18" s="2" customFormat="1">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -5432,34 +5805,38 @@
       <c r="F99" s="2">
         <v>0</v>
       </c>
-      <c r="H99" s="2">
-        <v>3.7286999999999999</v>
-      </c>
-      <c r="I99" s="2">
-        <f>1/(1 + 2.71^(-H99))</f>
-        <v>0.97627748772567768</v>
+      <c r="H99">
+        <v>0.30990000000000001</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="6"/>
+        <v>0.65485000000000004</v>
       </c>
       <c r="J99" s="2">
         <f>F99-I99</f>
-        <v>-0.97627748772567768</v>
-      </c>
-      <c r="L99" s="3">
+        <v>-0.65485000000000004</v>
+      </c>
+      <c r="K99" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
         <v>-0.55814073399999997</v>
       </c>
-      <c r="M99" s="2">
-        <f>1/(1 + 2.71^(-L99))</f>
+      <c r="N99" s="2">
+        <f t="shared" si="9"/>
         <v>0.36437212041663464</v>
       </c>
-      <c r="N99" s="2">
-        <f>F99-M99</f>
+      <c r="O99" s="2">
+        <f>F99-N99</f>
         <v>-0.36437212041663464</v>
       </c>
-      <c r="O99" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="P99" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5479,33 +5856,37 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>5.7370000000000001</v>
+        <v>0.56859999999999999</v>
       </c>
       <c r="I100">
-        <f>1/(1 + 2.71^(-H100))</f>
-        <v>0.99672936236032172</v>
+        <f t="shared" si="6"/>
+        <v>0.78420000000000001</v>
       </c>
       <c r="J100">
         <f>F100-I100</f>
-        <v>3.2706376396782755E-3</v>
-      </c>
-      <c r="L100" s="1">
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="K100" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M100" s="1">
         <v>0.91663163199999997</v>
       </c>
-      <c r="M100">
-        <f>1/(1 + 2.71^(-L100))</f>
+      <c r="N100">
+        <f t="shared" si="9"/>
         <v>0.7137842102576607</v>
       </c>
-      <c r="N100">
-        <f>F100-M100</f>
+      <c r="O100">
+        <f>F100-N100</f>
         <v>0.2862157897423393</v>
       </c>
-      <c r="O100" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="P100" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5525,38 +5906,56 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>2.6423000000000001</v>
+        <v>0.28210000000000002</v>
       </c>
       <c r="I101">
-        <f>1/(1 + 2.71^(-H101))</f>
-        <v>0.93303279810142792</v>
+        <f t="shared" si="6"/>
+        <v>0.64095000000000002</v>
       </c>
       <c r="J101">
         <f>F101-I101</f>
-        <v>6.6967201898572082E-2</v>
-      </c>
-      <c r="L101" s="1">
+        <v>0.35904999999999998</v>
+      </c>
+      <c r="K101" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M101" s="1">
         <v>0.73365358400000003</v>
       </c>
-      <c r="M101">
-        <f>1/(1 + 2.71^(-L101))</f>
+      <c r="N101">
+        <f t="shared" si="9"/>
         <v>0.67511569438667429</v>
       </c>
-      <c r="N101">
-        <f>F101-M101</f>
+      <c r="O101">
+        <f>F101-N101</f>
         <v>0.32488430561332571</v>
       </c>
-      <c r="O101" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
-      <c r="O102" t="s">
+      <c r="P101" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="F102" t="s">
+        <v>137</v>
+      </c>
+      <c r="K102" t="s">
+        <v>134</v>
+      </c>
+      <c r="P102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="F103" t="s">
+        <v>136</v>
+      </c>
+      <c r="K103" t="s">
+        <v>135</v>
+      </c>
+      <c r="P103" t="s">
         <v>132</v>
-      </c>
-      <c r="P102" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5571,4 +5970,827 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D15:CY117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="15" spans="4:103">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="K15">
+        <v>0.2283</v>
+      </c>
+      <c r="L15">
+        <v>-9.2700000000000005E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.2462</v>
+      </c>
+      <c r="N15">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="O15">
+        <v>0.3322</v>
+      </c>
+      <c r="P15">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="U15">
+        <v>0.254</v>
+      </c>
+      <c r="V15">
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0.2954</v>
+      </c>
+      <c r="Y15">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="Z15">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="AA15">
+        <v>0.1115</v>
+      </c>
+      <c r="AB15">
+        <v>0.3266</v>
+      </c>
+      <c r="AC15">
+        <v>0.39279999999999998</v>
+      </c>
+      <c r="AD15">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="AE15">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0.3967</v>
+      </c>
+      <c r="AH15">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="AI15">
+        <v>0.3196</v>
+      </c>
+      <c r="AJ15">
+        <v>0.35520000000000002</v>
+      </c>
+      <c r="AK15">
+        <v>0.3533</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0.46110000000000001</v>
+      </c>
+      <c r="AO15">
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="AP15">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="AQ15">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0.37019999999999997</v>
+      </c>
+      <c r="BC15">
+        <v>0.3216</v>
+      </c>
+      <c r="BD15">
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="BE15">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="BF15">
+        <v>0.44319999999999998</v>
+      </c>
+      <c r="BG15">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="BH15">
+        <v>0.33450000000000002</v>
+      </c>
+      <c r="BI15">
+        <v>0.2278</v>
+      </c>
+      <c r="BJ15">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="BK15">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="BL15">
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="BM15">
+        <v>0.36859999999999998</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0.2908</v>
+      </c>
+      <c r="BR15">
+        <v>0.41339999999999999</v>
+      </c>
+      <c r="BS15">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="BT15">
+        <v>0.55410000000000004</v>
+      </c>
+      <c r="BU15">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="BV15">
+        <v>0.67930000000000001</v>
+      </c>
+      <c r="BW15">
+        <v>0.5968</v>
+      </c>
+      <c r="BX15">
+        <v>0.4662</v>
+      </c>
+      <c r="BY15">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="BZ15">
+        <v>0.62209999999999999</v>
+      </c>
+      <c r="CA15">
+        <v>0.58860000000000001</v>
+      </c>
+      <c r="CB15">
+        <v>0.62739999999999996</v>
+      </c>
+      <c r="CC15">
+        <v>0.66590000000000005</v>
+      </c>
+      <c r="CD15">
+        <v>0.71619999999999995</v>
+      </c>
+      <c r="CE15">
+        <v>0.503</v>
+      </c>
+      <c r="CF15">
+        <v>0.28179999999999999</v>
+      </c>
+      <c r="CG15">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="CH15">
+        <v>0.2949</v>
+      </c>
+      <c r="CI15">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="CJ15">
+        <v>0.255</v>
+      </c>
+      <c r="CK15">
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="CL15">
+        <v>0.47560000000000002</v>
+      </c>
+      <c r="CM15">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="CN15">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="CO15">
+        <v>0.66239999999999999</v>
+      </c>
+      <c r="CP15">
+        <v>0.55769999999999997</v>
+      </c>
+      <c r="CQ15">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="CR15">
+        <v>0.51180000000000003</v>
+      </c>
+      <c r="CS15">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="CT15">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="CU15">
+        <v>0.57330000000000003</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>0.30990000000000001</v>
+      </c>
+      <c r="CX15">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="CY15">
+        <v>0.28210000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24">
+        <v>8.4599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25">
+        <v>0.2283</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26">
+        <v>-9.2700000000000005E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27">
+        <v>0.2462</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28">
+        <v>0.42309999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29">
+        <v>0.3322</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30">
+        <v>9.1700000000000004E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34">
+        <v>0.15459999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36">
+        <v>0.33560000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38">
+        <v>0.2954</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40">
+        <v>0.13039999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41">
+        <v>0.1115</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42">
+        <v>0.3266</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43">
+        <v>0.39279999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44">
+        <v>0.35630000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45">
+        <v>9.0399999999999994E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47">
+        <v>0.3967</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48">
+        <v>0.38450000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49">
+        <v>0.3196</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50">
+        <v>0.35520000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51">
+        <v>0.3533</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54">
+        <v>0.46110000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55">
+        <v>0.27079999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56">
+        <v>0.21160000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57">
+        <v>0.37419999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68">
+        <v>0.37019999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69">
+        <v>0.3216</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70">
+        <v>0.59030000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71">
+        <v>0.43340000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72">
+        <v>0.44319999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73">
+        <v>5.6500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74">
+        <v>0.33450000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75">
+        <v>0.2278</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76">
+        <v>0.52429999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77">
+        <v>0.49130000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78">
+        <v>0.59289999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79">
+        <v>0.36859999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81">
+        <v>0.43640000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83">
+        <v>0.2908</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84">
+        <v>0.41339999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85">
+        <v>0.58079999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86">
+        <v>0.55410000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88">
+        <v>0.67930000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89">
+        <v>0.5968</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90">
+        <v>0.4662</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91">
+        <v>0.58330000000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92">
+        <v>0.62209999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93">
+        <v>0.58860000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94">
+        <v>0.62739999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95">
+        <v>0.66590000000000005</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96">
+        <v>0.71619999999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98">
+        <v>0.28179999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99">
+        <v>0.69240000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100">
+        <v>0.2949</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101">
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103">
+        <v>0.65029999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104">
+        <v>0.47560000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105">
+        <v>0.73309999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107">
+        <v>0.66239999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108">
+        <v>0.55769999999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110">
+        <v>0.51180000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111">
+        <v>0.74119999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112">
+        <v>0.65110000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113">
+        <v>0.57330000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115">
+        <v>0.30990000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116">
+        <v>0.56859999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117">
+        <v>0.28210000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>